--- a/burnseverity.xlsx
+++ b/burnseverity.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\UAH\Dropbox\Sentinel Burn Severity\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Datos\Paper wildfires\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="407" uniqueCount="262">
   <si>
     <t>ID</t>
   </si>
@@ -255,90 +255,519 @@
     <t>Pino Radiata</t>
   </si>
   <si>
+    <t>-34.945.356</t>
+  </si>
+  <si>
+    <t>-71.935.852</t>
+  </si>
+  <si>
     <t>Las Maquinas</t>
   </si>
   <si>
+    <t>-35.446.131</t>
+  </si>
+  <si>
+    <t>-72.320.955</t>
+  </si>
+  <si>
     <t>Eucalipto</t>
   </si>
   <si>
+    <t>-35.445.926</t>
+  </si>
+  <si>
+    <t>-72.325.132</t>
+  </si>
+  <si>
     <t>Esclerofilo</t>
   </si>
   <si>
+    <t>-35.445.141</t>
+  </si>
+  <si>
+    <t>-72.304.506</t>
+  </si>
+  <si>
+    <t>-35.457.420</t>
+  </si>
+  <si>
+    <t>-72.273.948</t>
+  </si>
+  <si>
+    <t>-35.531.032</t>
+  </si>
+  <si>
+    <t>-72.163.163</t>
+  </si>
+  <si>
+    <t>-35.446.770</t>
+  </si>
+  <si>
+    <t>-72.320.651</t>
+  </si>
+  <si>
+    <t>-35.456.874</t>
+  </si>
+  <si>
+    <t>-72.274.146</t>
+  </si>
+  <si>
+    <t>-35.532.008</t>
+  </si>
+  <si>
+    <t>-72.163.753</t>
+  </si>
+  <si>
+    <t>-35.447.823</t>
+  </si>
+  <si>
+    <t>-72.321.686</t>
+  </si>
+  <si>
+    <t>-35.445.537</t>
+  </si>
+  <si>
+    <t>-72.303.200</t>
+  </si>
+  <si>
+    <t>-35.457.612</t>
+  </si>
+  <si>
+    <t>-72.273.515</t>
+  </si>
+  <si>
+    <t>-35.531.201</t>
+  </si>
+  <si>
+    <t>-72.163.611</t>
+  </si>
+  <si>
     <t>cali1</t>
   </si>
   <si>
+    <t>-35.446.822</t>
+  </si>
+  <si>
+    <t>-72.326.685</t>
+  </si>
+  <si>
     <t>cali2</t>
   </si>
   <si>
+    <t>-35.407.587</t>
+  </si>
+  <si>
+    <t>-72.152.162</t>
+  </si>
+  <si>
     <t>Nilahue Barahona</t>
   </si>
   <si>
     <t>Peumo - Quillay</t>
   </si>
   <si>
+    <t>-34.604.817</t>
+  </si>
+  <si>
+    <t>-71.702.171</t>
+  </si>
+  <si>
+    <t>-34.578.279</t>
+  </si>
+  <si>
+    <t>-71.752.098</t>
+  </si>
+  <si>
+    <t>-34.581.865</t>
+  </si>
+  <si>
+    <t>-71.716.795</t>
+  </si>
+  <si>
+    <t>-34.578.657</t>
+  </si>
+  <si>
+    <t>-71.715.164</t>
+  </si>
+  <si>
+    <t>-34.572.925</t>
+  </si>
+  <si>
+    <t>-71.713.452</t>
+  </si>
+  <si>
     <t>Quillay - Litre</t>
   </si>
   <si>
+    <t>-34.603.024</t>
+  </si>
+  <si>
+    <t>-71.697.643</t>
+  </si>
+  <si>
     <t>Eucalipto - Espino</t>
   </si>
   <si>
+    <t>-34.580.493</t>
+  </si>
+  <si>
+    <t>-71.729.829</t>
+  </si>
+  <si>
+    <t>-34.582.508</t>
+  </si>
+  <si>
+    <t>-71.716.271</t>
+  </si>
+  <si>
     <t>Quillay - Peumo</t>
   </si>
   <si>
+    <t>-34.579.277</t>
+  </si>
+  <si>
+    <t>-71.715.621</t>
+  </si>
+  <si>
+    <t>-34.572.444</t>
+  </si>
+  <si>
+    <t>-71.714.853</t>
+  </si>
+  <si>
+    <t>-34.596.385</t>
+  </si>
+  <si>
+    <t>-71.700.262</t>
+  </si>
+  <si>
+    <t>-34.595.198</t>
+  </si>
+  <si>
     <t>-71.757.344</t>
   </si>
   <si>
+    <t>-34.578.343</t>
+  </si>
+  <si>
+    <t>-71.753.299</t>
+  </si>
+  <si>
+    <t>-34.582.462</t>
+  </si>
+  <si>
+    <t>-71.730.438</t>
+  </si>
+  <si>
+    <t>-34.583.392</t>
+  </si>
+  <si>
+    <t>-71.717.062</t>
+  </si>
+  <si>
+    <t>-34.579.112</t>
+  </si>
+  <si>
+    <t>-71.714.961</t>
+  </si>
+  <si>
+    <t>-34.572.887</t>
+  </si>
+  <si>
+    <t>-71.715.195</t>
+  </si>
+  <si>
+    <t>-34.570.727</t>
+  </si>
+  <si>
+    <t>-71.710.983</t>
+  </si>
+  <si>
+    <t>-34.210.720</t>
+  </si>
+  <si>
+    <t>-71.848.375</t>
+  </si>
+  <si>
+    <t>-34.323.191</t>
+  </si>
+  <si>
+    <t>-71.826.313</t>
+  </si>
+  <si>
     <t>Roble - Hualo</t>
   </si>
   <si>
+    <t>-35.255.617</t>
+  </si>
+  <si>
+    <t>-72.198.150</t>
+  </si>
+  <si>
     <t>Hualo - Avellano</t>
   </si>
   <si>
+    <t>-35.258.390</t>
+  </si>
+  <si>
+    <t>-72.216.736</t>
+  </si>
+  <si>
     <t>Eucaliptus - Quillay</t>
   </si>
   <si>
+    <t>-35.255.407</t>
+  </si>
+  <si>
+    <t>-72.204.640</t>
+  </si>
+  <si>
     <t>Pino Radiata - Eucaliptus</t>
   </si>
   <si>
+    <t>-35.258.305</t>
+  </si>
+  <si>
+    <t>-72.209.156</t>
+  </si>
+  <si>
+    <t>-35.255.128</t>
+  </si>
+  <si>
+    <t>-72.208.166</t>
+  </si>
+  <si>
     <t xml:space="preserve">Eucaliptus </t>
   </si>
   <si>
+    <t>-35.256.201</t>
+  </si>
+  <si>
+    <t>-72.207.800</t>
+  </si>
+  <si>
     <t xml:space="preserve">Hualo </t>
   </si>
   <si>
+    <t>-35.261.896</t>
+  </si>
+  <si>
+    <t>-72.185.186</t>
+  </si>
+  <si>
+    <t>-35.262.143</t>
+  </si>
+  <si>
+    <t>-72.184.188</t>
+  </si>
+  <si>
+    <t>-35.341.411</t>
+  </si>
+  <si>
+    <t>-72.158.998</t>
+  </si>
+  <si>
+    <t>-35.339.266</t>
+  </si>
+  <si>
+    <t>-72.163.583</t>
+  </si>
+  <si>
+    <t>-35.340.686</t>
+  </si>
+  <si>
+    <t>-72.162.654</t>
+  </si>
+  <si>
+    <t>-35.334.760</t>
+  </si>
+  <si>
+    <t>-72.171.330</t>
+  </si>
+  <si>
+    <t>-35.338.162</t>
+  </si>
+  <si>
+    <t>-72.166.482</t>
+  </si>
+  <si>
+    <t>-35.344.958</t>
+  </si>
+  <si>
+    <t>-72.171.855</t>
+  </si>
+  <si>
+    <t>-35.345.519</t>
+  </si>
+  <si>
+    <t>-72.172.715</t>
+  </si>
+  <si>
+    <t>-35.349.158</t>
+  </si>
+  <si>
+    <t>-72.205.152</t>
+  </si>
+  <si>
+    <t>-35.378.418</t>
+  </si>
+  <si>
+    <t>-72.254.767</t>
+  </si>
+  <si>
     <t>Roble - Pino Radiata</t>
   </si>
   <si>
+    <t>-35.651.280</t>
+  </si>
+  <si>
+    <t>-72.264.007</t>
+  </si>
+  <si>
     <t>Peumo - Quillay - Litre</t>
   </si>
   <si>
+    <t>-35.649.745</t>
+  </si>
+  <si>
+    <t>-72.252.023</t>
+  </si>
+  <si>
+    <t>-35.649.913</t>
+  </si>
+  <si>
+    <t>-72.251.465</t>
+  </si>
+  <si>
     <t>Hualo - Pino Insigne</t>
   </si>
   <si>
+    <t>-35.653.558</t>
+  </si>
+  <si>
+    <t>-72.257.193</t>
+  </si>
+  <si>
     <t>Pino Insigne - Eucaliptus</t>
   </si>
   <si>
+    <t>-35.662.178</t>
+  </si>
+  <si>
+    <t>-72.307.592</t>
+  </si>
+  <si>
     <t xml:space="preserve">Pino Insigne </t>
   </si>
   <si>
+    <t>-35.662.814</t>
+  </si>
+  <si>
+    <t>-72.311.878</t>
+  </si>
+  <si>
     <t>Eucaliptus</t>
   </si>
   <si>
+    <t>-34.199.693</t>
+  </si>
+  <si>
+    <t>-71.786.922</t>
+  </si>
+  <si>
+    <t>-34.225.146</t>
+  </si>
+  <si>
+    <t>-71.777.560</t>
+  </si>
+  <si>
+    <t>-34.227.966</t>
+  </si>
+  <si>
+    <t>-71.776.458</t>
+  </si>
+  <si>
     <t>Pino Radiata - Quillay</t>
   </si>
   <si>
+    <t>-34.232.051</t>
+  </si>
+  <si>
+    <t>-71.779.197</t>
+  </si>
+  <si>
+    <t>-34.400.869</t>
+  </si>
+  <si>
+    <t>-71.776.288</t>
+  </si>
+  <si>
+    <t>-34.399.484</t>
+  </si>
+  <si>
+    <t>-71.777.765</t>
+  </si>
+  <si>
+    <t>-34.384.006</t>
+  </si>
+  <si>
+    <t>-71.780.516</t>
+  </si>
+  <si>
     <t xml:space="preserve">Espino </t>
   </si>
   <si>
+    <t>-34.378.309</t>
+  </si>
+  <si>
+    <t>-71.808.921</t>
+  </si>
+  <si>
     <t>Litre - Quillay - Boldo</t>
   </si>
   <si>
+    <t>-34.380.516</t>
+  </si>
+  <si>
+    <t>-71.810.952</t>
+  </si>
+  <si>
+    <t>-34.448.986</t>
+  </si>
+  <si>
+    <t>-71.796.924</t>
+  </si>
+  <si>
+    <t>-34.403.785</t>
+  </si>
+  <si>
+    <t>-71.778.886</t>
+  </si>
+  <si>
     <t>Eucaliptus - Pino</t>
   </si>
   <si>
+    <t>-34.454.784</t>
+  </si>
+  <si>
+    <t>-71.795.702</t>
+  </si>
+  <si>
+    <t>-34.419.408</t>
+  </si>
+  <si>
+    <t>-71.789.520</t>
+  </si>
+  <si>
     <t>Esclerófilo - Eucaliptus - Pino</t>
   </si>
   <si>
+    <t>-34.447.813</t>
+  </si>
+  <si>
+    <t>-71.796.993</t>
+  </si>
+  <si>
     <t>NDVI</t>
   </si>
   <si>
@@ -370,13 +799,19 @@
   </si>
   <si>
     <t>Substraction between exante and 2020 bands</t>
+  </si>
+  <si>
+    <t>Pino</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pino </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -510,6 +945,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="34">
@@ -699,7 +1140,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -838,6 +1279,52 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -883,23 +1370,33 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Énfasis1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1223,176 +1720,176 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BX79"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="O4" sqref="O4:P79"/>
+    <sheetView tabSelected="1" topLeftCell="M59" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="X39" sqref="X39:AC63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="15" max="16" width="11.42578125" style="4"/>
+    <col min="4" max="4" width="18.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:76" x14ac:dyDescent="0.25">
-      <c r="Q1" s="7" t="s">
-        <v>106</v>
+      <c r="Q1" s="6" t="s">
+        <v>249</v>
       </c>
       <c r="R1" s="7"/>
       <c r="S1" s="7"/>
-      <c r="T1" s="7"/>
-      <c r="U1" s="7" t="s">
-        <v>107</v>
+      <c r="T1" s="8"/>
+      <c r="U1" s="6" t="s">
+        <v>250</v>
       </c>
       <c r="V1" s="7"/>
       <c r="W1" s="7"/>
-      <c r="X1" s="7"/>
-      <c r="Y1" s="7" t="s">
-        <v>108</v>
+      <c r="X1" s="8"/>
+      <c r="Y1" s="6" t="s">
+        <v>251</v>
       </c>
       <c r="Z1" s="7"/>
       <c r="AA1" s="7"/>
-      <c r="AB1" s="7"/>
-      <c r="AC1" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="AD1" s="6"/>
-      <c r="AE1" s="6"/>
-      <c r="AF1" s="6"/>
-      <c r="AG1" s="6"/>
-      <c r="AH1" s="6"/>
-      <c r="AI1" s="6"/>
-      <c r="AJ1" s="6"/>
-      <c r="AK1" s="6"/>
-      <c r="AL1" s="6"/>
-      <c r="AM1" s="6"/>
-      <c r="AN1" s="6"/>
-      <c r="AO1" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="AP1" s="6"/>
-      <c r="AQ1" s="6"/>
-      <c r="AR1" s="6"/>
-      <c r="AS1" s="6"/>
-      <c r="AT1" s="6"/>
-      <c r="AU1" s="6"/>
-      <c r="AV1" s="6"/>
-      <c r="AW1" s="6"/>
-      <c r="AX1" s="6"/>
-      <c r="AY1" s="6"/>
-      <c r="AZ1" s="6"/>
-      <c r="BA1" s="5" t="s">
-        <v>115</v>
-      </c>
-      <c r="BB1" s="6"/>
-      <c r="BC1" s="6"/>
-      <c r="BD1" s="6"/>
-      <c r="BE1" s="6"/>
-      <c r="BF1" s="6"/>
-      <c r="BG1" s="6"/>
-      <c r="BH1" s="6"/>
-      <c r="BI1" s="6"/>
-      <c r="BJ1" s="6"/>
-      <c r="BK1" s="6"/>
-      <c r="BL1" s="6"/>
-      <c r="BM1" s="5" t="s">
-        <v>116</v>
-      </c>
-      <c r="BN1" s="6"/>
-      <c r="BO1" s="6"/>
-      <c r="BP1" s="6"/>
-      <c r="BQ1" s="6"/>
-      <c r="BR1" s="6"/>
-      <c r="BS1" s="6"/>
-      <c r="BT1" s="6"/>
-      <c r="BU1" s="6"/>
-      <c r="BV1" s="6"/>
-      <c r="BW1" s="6"/>
-      <c r="BX1" s="6"/>
+      <c r="AB1" s="8"/>
+      <c r="AC1" s="4" t="s">
+        <v>256</v>
+      </c>
+      <c r="AD1" s="5"/>
+      <c r="AE1" s="5"/>
+      <c r="AF1" s="5"/>
+      <c r="AG1" s="5"/>
+      <c r="AH1" s="5"/>
+      <c r="AI1" s="5"/>
+      <c r="AJ1" s="5"/>
+      <c r="AK1" s="5"/>
+      <c r="AL1" s="5"/>
+      <c r="AM1" s="5"/>
+      <c r="AN1" s="9"/>
+      <c r="AO1" s="4" t="s">
+        <v>257</v>
+      </c>
+      <c r="AP1" s="5"/>
+      <c r="AQ1" s="5"/>
+      <c r="AR1" s="5"/>
+      <c r="AS1" s="5"/>
+      <c r="AT1" s="5"/>
+      <c r="AU1" s="5"/>
+      <c r="AV1" s="5"/>
+      <c r="AW1" s="5"/>
+      <c r="AX1" s="5"/>
+      <c r="AY1" s="5"/>
+      <c r="AZ1" s="9"/>
+      <c r="BA1" s="4" t="s">
+        <v>258</v>
+      </c>
+      <c r="BB1" s="5"/>
+      <c r="BC1" s="5"/>
+      <c r="BD1" s="5"/>
+      <c r="BE1" s="5"/>
+      <c r="BF1" s="5"/>
+      <c r="BG1" s="5"/>
+      <c r="BH1" s="5"/>
+      <c r="BI1" s="5"/>
+      <c r="BJ1" s="5"/>
+      <c r="BK1" s="5"/>
+      <c r="BL1" s="9"/>
+      <c r="BM1" s="4" t="s">
+        <v>259</v>
+      </c>
+      <c r="BN1" s="5"/>
+      <c r="BO1" s="5"/>
+      <c r="BP1" s="5"/>
+      <c r="BQ1" s="5"/>
+      <c r="BR1" s="5"/>
+      <c r="BS1" s="5"/>
+      <c r="BT1" s="5"/>
+      <c r="BU1" s="5"/>
+      <c r="BV1" s="5"/>
+      <c r="BW1" s="5"/>
+      <c r="BX1" s="5"/>
     </row>
     <row r="2" spans="1:76" x14ac:dyDescent="0.25">
       <c r="Q2" s="1" t="s">
-        <v>109</v>
+        <v>252</v>
       </c>
       <c r="R2" s="1" t="s">
-        <v>110</v>
+        <v>253</v>
       </c>
       <c r="S2" s="1" t="s">
-        <v>111</v>
+        <v>254</v>
       </c>
       <c r="T2" s="1" t="s">
-        <v>112</v>
+        <v>255</v>
       </c>
       <c r="U2" s="1" t="s">
-        <v>109</v>
+        <v>252</v>
       </c>
       <c r="V2" s="1" t="s">
-        <v>110</v>
+        <v>253</v>
       </c>
       <c r="W2" s="1" t="s">
-        <v>111</v>
+        <v>254</v>
       </c>
       <c r="X2" s="1" t="s">
-        <v>112</v>
+        <v>255</v>
       </c>
       <c r="Y2" s="1" t="s">
-        <v>109</v>
+        <v>252</v>
       </c>
       <c r="Z2" s="1" t="s">
-        <v>110</v>
+        <v>253</v>
       </c>
       <c r="AA2" s="1" t="s">
-        <v>111</v>
+        <v>254</v>
       </c>
       <c r="AB2" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="AC2" s="5"/>
-      <c r="AD2" s="6"/>
-      <c r="AE2" s="6"/>
-      <c r="AF2" s="6"/>
-      <c r="AG2" s="6"/>
-      <c r="AH2" s="6"/>
-      <c r="AI2" s="6"/>
-      <c r="AJ2" s="6"/>
-      <c r="AK2" s="6"/>
-      <c r="AL2" s="6"/>
-      <c r="AM2" s="6"/>
-      <c r="AN2" s="6"/>
-      <c r="AO2" s="5"/>
-      <c r="AP2" s="6"/>
-      <c r="AQ2" s="6"/>
-      <c r="AR2" s="6"/>
-      <c r="AS2" s="6"/>
-      <c r="AT2" s="6"/>
-      <c r="AU2" s="6"/>
-      <c r="AV2" s="6"/>
-      <c r="AW2" s="6"/>
-      <c r="AX2" s="6"/>
-      <c r="AY2" s="6"/>
-      <c r="AZ2" s="6"/>
-      <c r="BA2" s="5"/>
-      <c r="BB2" s="6"/>
-      <c r="BC2" s="6"/>
-      <c r="BD2" s="6"/>
-      <c r="BE2" s="6"/>
-      <c r="BF2" s="6"/>
-      <c r="BG2" s="6"/>
-      <c r="BH2" s="6"/>
-      <c r="BI2" s="6"/>
-      <c r="BJ2" s="6"/>
-      <c r="BK2" s="6"/>
-      <c r="BL2" s="6"/>
-      <c r="BM2" s="5"/>
-      <c r="BN2" s="6"/>
-      <c r="BO2" s="6"/>
-      <c r="BP2" s="6"/>
-      <c r="BQ2" s="6"/>
-      <c r="BR2" s="6"/>
-      <c r="BS2" s="6"/>
-      <c r="BT2" s="6"/>
-      <c r="BU2" s="6"/>
-      <c r="BV2" s="6"/>
-      <c r="BW2" s="6"/>
-      <c r="BX2" s="6"/>
+        <v>255</v>
+      </c>
+      <c r="AC2" s="4"/>
+      <c r="AD2" s="5"/>
+      <c r="AE2" s="5"/>
+      <c r="AF2" s="5"/>
+      <c r="AG2" s="5"/>
+      <c r="AH2" s="5"/>
+      <c r="AI2" s="5"/>
+      <c r="AJ2" s="5"/>
+      <c r="AK2" s="5"/>
+      <c r="AL2" s="5"/>
+      <c r="AM2" s="5"/>
+      <c r="AN2" s="9"/>
+      <c r="AO2" s="4"/>
+      <c r="AP2" s="5"/>
+      <c r="AQ2" s="5"/>
+      <c r="AR2" s="5"/>
+      <c r="AS2" s="5"/>
+      <c r="AT2" s="5"/>
+      <c r="AU2" s="5"/>
+      <c r="AV2" s="5"/>
+      <c r="AW2" s="5"/>
+      <c r="AX2" s="5"/>
+      <c r="AY2" s="5"/>
+      <c r="AZ2" s="9"/>
+      <c r="BA2" s="4"/>
+      <c r="BB2" s="5"/>
+      <c r="BC2" s="5"/>
+      <c r="BD2" s="5"/>
+      <c r="BE2" s="5"/>
+      <c r="BF2" s="5"/>
+      <c r="BG2" s="5"/>
+      <c r="BH2" s="5"/>
+      <c r="BI2" s="5"/>
+      <c r="BJ2" s="5"/>
+      <c r="BK2" s="5"/>
+      <c r="BL2" s="9"/>
+      <c r="BM2" s="4"/>
+      <c r="BN2" s="5"/>
+      <c r="BO2" s="5"/>
+      <c r="BP2" s="5"/>
+      <c r="BQ2" s="5"/>
+      <c r="BR2" s="5"/>
+      <c r="BS2" s="5"/>
+      <c r="BT2" s="5"/>
+      <c r="BU2" s="5"/>
+      <c r="BV2" s="5"/>
+      <c r="BW2" s="5"/>
+      <c r="BX2" s="5"/>
     </row>
     <row r="3" spans="1:76" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
@@ -1437,10 +1934,10 @@
       <c r="N3" t="s">
         <v>13</v>
       </c>
-      <c r="O3" s="4" t="s">
+      <c r="O3" t="s">
         <v>14</v>
       </c>
-      <c r="P3" s="4" t="s">
+      <c r="P3" t="s">
         <v>15</v>
       </c>
       <c r="Q3" s="2" t="s">
@@ -1667,11 +2164,11 @@
       <c r="N4">
         <v>6129080</v>
       </c>
-      <c r="O4">
-        <v>-34.945355999999997</v>
-      </c>
-      <c r="P4">
-        <v>-71.935851999999997</v>
+      <c r="O4" t="s">
+        <v>78</v>
+      </c>
+      <c r="P4" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="5" spans="1:76" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -1682,7 +2179,7 @@
         <v>83</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>77</v>
@@ -1717,11 +2214,11 @@
       <c r="N5" s="3">
         <v>6072411.1399999997</v>
       </c>
-      <c r="O5">
-        <v>-35.446131000000001</v>
-      </c>
-      <c r="P5">
-        <v>-72.320954999999998</v>
+      <c r="O5" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="P5" s="3" t="s">
+        <v>82</v>
       </c>
       <c r="Q5" s="3">
         <v>1.8800000000000001E-2</v>
@@ -1747,17 +2244,17 @@
       <c r="X5" s="3">
         <v>-2.5600000000000001E-2</v>
       </c>
-      <c r="Y5" s="3">
-        <v>-2.2100000000000002E-2</v>
-      </c>
-      <c r="Z5" s="3">
-        <v>-2.81E-2</v>
-      </c>
-      <c r="AA5" s="3">
-        <v>-1.4E-3</v>
-      </c>
-      <c r="AB5" s="3">
-        <v>1.06E-2</v>
+      <c r="Y5" s="11">
+        <v>2.2100000000000002E-2</v>
+      </c>
+      <c r="Z5" s="11">
+        <v>2.81E-2</v>
+      </c>
+      <c r="AA5" s="11">
+        <v>1.4E-3</v>
+      </c>
+      <c r="AB5" s="11">
+        <v>-1.06E-2</v>
       </c>
       <c r="AC5" s="3">
         <v>86.085999999999999</v>
@@ -1912,10 +2409,10 @@
         <v>84</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="E6" s="3">
         <v>1.88</v>
@@ -1947,11 +2444,11 @@
       <c r="N6" s="3">
         <v>6072421.1399999997</v>
       </c>
-      <c r="O6">
-        <v>-35.445926</v>
-      </c>
-      <c r="P6">
-        <v>-72.325131999999996</v>
+      <c r="O6" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="P6" s="3" t="s">
+        <v>85</v>
       </c>
       <c r="Q6" s="3">
         <v>0.2472</v>
@@ -1977,17 +2474,17 @@
       <c r="X6" s="3">
         <v>6.4199999999999993E-2</v>
       </c>
-      <c r="Y6" s="3">
-        <v>-0.4234</v>
-      </c>
-      <c r="Z6" s="3">
-        <v>-0.18459999999999999</v>
-      </c>
-      <c r="AA6" s="3">
-        <v>-0.13869999999999999</v>
-      </c>
-      <c r="AB6" s="3">
-        <v>-0.11020000000000001</v>
+      <c r="Y6" s="11">
+        <v>0.4234</v>
+      </c>
+      <c r="Z6" s="11">
+        <v>0.18459999999999999</v>
+      </c>
+      <c r="AA6" s="11">
+        <v>0.13869999999999999</v>
+      </c>
+      <c r="AB6" s="11">
+        <v>0.11020000000000001</v>
       </c>
       <c r="AC6" s="3">
         <v>53.7819</v>
@@ -2142,14 +2639,17 @@
         <v>86</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="E7" s="3">
         <v>0.68</v>
       </c>
+      <c r="F7" s="3">
+        <v>0.68</v>
+      </c>
       <c r="G7" s="3">
         <v>0.68</v>
       </c>
@@ -2174,11 +2674,11 @@
       <c r="N7" s="3">
         <v>6072571.1399999997</v>
       </c>
-      <c r="O7">
-        <v>-35.445141</v>
-      </c>
-      <c r="P7">
-        <v>-72.304506000000003</v>
+      <c r="O7" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="P7" s="3" t="s">
+        <v>88</v>
       </c>
       <c r="Q7" s="3">
         <v>2.53E-2</v>
@@ -2204,17 +2704,17 @@
       <c r="X7" s="3">
         <v>-4.5199999999999997E-2</v>
       </c>
-      <c r="Y7" s="3">
-        <v>-9.8199999999999996E-2</v>
-      </c>
-      <c r="Z7" s="3">
-        <v>3.7900000000000003E-2</v>
-      </c>
-      <c r="AA7" s="3">
-        <v>4.99E-2</v>
-      </c>
-      <c r="AB7" s="3">
-        <v>7.4700000000000003E-2</v>
+      <c r="Y7" s="11">
+        <v>9.8199999999999996E-2</v>
+      </c>
+      <c r="Z7" s="11">
+        <v>-3.7900000000000003E-2</v>
+      </c>
+      <c r="AA7" s="11">
+        <v>-4.99E-2</v>
+      </c>
+      <c r="AB7" s="11">
+        <v>-7.4700000000000003E-2</v>
       </c>
       <c r="AC7" s="3">
         <v>107.6887</v>
@@ -2369,7 +2869,7 @@
         <v>101</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>77</v>
@@ -2404,11 +2904,11 @@
       <c r="N8" s="3">
         <v>6071301.1399999997</v>
       </c>
-      <c r="O8">
-        <v>-35.457419999999999</v>
-      </c>
-      <c r="P8">
-        <v>-72.273948000000004</v>
+      <c r="O8" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="P8" s="3" t="s">
+        <v>90</v>
       </c>
       <c r="Q8" s="3">
         <v>-3.8100000000000002E-2</v>
@@ -2434,17 +2934,17 @@
       <c r="X8" s="3">
         <v>-3.4299999999999997E-2</v>
       </c>
-      <c r="Y8" s="3">
-        <v>3.0599999999999999E-2</v>
-      </c>
-      <c r="Z8" s="3">
-        <v>9.4000000000000004E-3</v>
-      </c>
-      <c r="AA8" s="3">
-        <v>3.04E-2</v>
-      </c>
-      <c r="AB8" s="3">
-        <v>2.41E-2</v>
+      <c r="Y8" s="11">
+        <v>-3.0599999999999999E-2</v>
+      </c>
+      <c r="Z8" s="11">
+        <v>-9.4000000000000004E-3</v>
+      </c>
+      <c r="AA8" s="11">
+        <v>-3.04E-2</v>
+      </c>
+      <c r="AB8" s="11">
+        <v>-2.41E-2</v>
       </c>
       <c r="AC8" s="3">
         <v>68.939899999999994</v>
@@ -2599,10 +3099,10 @@
         <v>103</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="E9" s="3">
         <v>0.49</v>
@@ -2634,11 +3134,11 @@
       <c r="N9" s="3">
         <v>6063461.1399999997</v>
       </c>
-      <c r="O9">
-        <v>-35.531032000000003</v>
-      </c>
-      <c r="P9">
-        <v>-72.163162999999997</v>
+      <c r="O9" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="P9" s="3" t="s">
+        <v>92</v>
       </c>
       <c r="Q9" s="3">
         <v>0.2472</v>
@@ -2664,17 +3164,17 @@
       <c r="X9" s="3">
         <v>-9.7999999999999997E-3</v>
       </c>
-      <c r="Y9" s="3">
-        <v>-0.35499999999999998</v>
-      </c>
-      <c r="Z9" s="3">
-        <v>-0.1023</v>
-      </c>
-      <c r="AA9" s="3">
-        <v>-4.0800000000000003E-2</v>
-      </c>
-      <c r="AB9" s="3">
-        <v>-6.0000000000000001E-3</v>
+      <c r="Y9" s="11">
+        <v>0.35499999999999998</v>
+      </c>
+      <c r="Z9" s="11">
+        <v>0.1023</v>
+      </c>
+      <c r="AA9" s="11">
+        <v>4.0800000000000003E-2</v>
+      </c>
+      <c r="AB9" s="11">
+        <v>6.0000000000000001E-3</v>
       </c>
       <c r="AC9" s="3">
         <v>90.406599999999997</v>
@@ -2829,10 +3329,10 @@
         <v>104</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="E10" s="3">
         <v>0.79</v>
@@ -2864,11 +3364,11 @@
       <c r="N10" s="3">
         <v>6072341.1399999997</v>
       </c>
-      <c r="O10">
-        <v>-35.446770000000001</v>
-      </c>
-      <c r="P10">
-        <v>-72.320650999999998</v>
+      <c r="O10" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="P10" s="3" t="s">
+        <v>94</v>
       </c>
       <c r="Q10" s="3">
         <v>0.25340000000000001</v>
@@ -2894,17 +3394,17 @@
       <c r="X10" s="3">
         <v>6.6000000000000003E-2</v>
       </c>
-      <c r="Y10" s="3">
-        <v>-0.39660000000000001</v>
-      </c>
-      <c r="Z10" s="3">
-        <v>-0.2248</v>
-      </c>
-      <c r="AA10" s="3">
-        <v>-0.1394</v>
-      </c>
-      <c r="AB10" s="3">
-        <v>-8.8800000000000004E-2</v>
+      <c r="Y10" s="11">
+        <v>0.39660000000000001</v>
+      </c>
+      <c r="Z10" s="11">
+        <v>0.2248</v>
+      </c>
+      <c r="AA10" s="11">
+        <v>0.1394</v>
+      </c>
+      <c r="AB10" s="11">
+        <v>8.8800000000000004E-2</v>
       </c>
       <c r="AC10" s="3">
         <v>26.950199999999999</v>
@@ -3059,14 +3559,17 @@
         <v>105</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="E11" s="3">
         <v>0.28999999999999998</v>
       </c>
+      <c r="F11" s="3">
+        <v>0.28999999999999998</v>
+      </c>
       <c r="G11" s="3">
         <v>0.28999999999999998</v>
       </c>
@@ -3091,11 +3594,11 @@
       <c r="N11" s="3">
         <v>6071361.1399999997</v>
       </c>
-      <c r="O11">
-        <v>-35.456873999999999</v>
-      </c>
-      <c r="P11">
-        <v>-72.274146000000002</v>
+      <c r="O11" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="P11" s="3" t="s">
+        <v>96</v>
       </c>
       <c r="Q11" s="3">
         <v>7.0199999999999999E-2</v>
@@ -3121,17 +3624,17 @@
       <c r="X11" s="3">
         <v>-5.21E-2</v>
       </c>
-      <c r="Y11" s="3">
-        <v>-0.1109</v>
-      </c>
-      <c r="Z11" s="3">
-        <v>2.12E-2</v>
-      </c>
-      <c r="AA11" s="3">
-        <v>4.8599999999999997E-2</v>
-      </c>
-      <c r="AB11" s="3">
-        <v>7.0400000000000004E-2</v>
+      <c r="Y11" s="11">
+        <v>0.1109</v>
+      </c>
+      <c r="Z11" s="11">
+        <v>-2.12E-2</v>
+      </c>
+      <c r="AA11" s="11">
+        <v>-4.8599999999999997E-2</v>
+      </c>
+      <c r="AB11" s="11">
+        <v>-7.0400000000000004E-2</v>
       </c>
       <c r="AC11" s="3">
         <v>109.0762</v>
@@ -3286,7 +3789,7 @@
         <v>10</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>77</v>
@@ -3321,11 +3824,11 @@
       <c r="N12" s="3">
         <v>6063351.1399999997</v>
       </c>
-      <c r="O12">
-        <v>-35.532007999999998</v>
-      </c>
-      <c r="P12">
-        <v>-72.163753</v>
+      <c r="O12" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="P12" s="3" t="s">
+        <v>98</v>
       </c>
       <c r="Q12" s="3">
         <v>3.9699999999999999E-2</v>
@@ -3351,17 +3854,17 @@
       <c r="X12" s="3">
         <v>-5.4000000000000003E-3</v>
       </c>
-      <c r="Y12" s="3">
-        <v>-4.2599999999999999E-2</v>
-      </c>
-      <c r="Z12" s="3">
-        <v>-4.53E-2</v>
-      </c>
-      <c r="AA12" s="3">
-        <v>-2.52E-2</v>
-      </c>
-      <c r="AB12" s="3">
-        <v>-5.7999999999999996E-3</v>
+      <c r="Y12" s="11">
+        <v>4.2599999999999999E-2</v>
+      </c>
+      <c r="Z12" s="11">
+        <v>4.53E-2</v>
+      </c>
+      <c r="AA12" s="11">
+        <v>2.52E-2</v>
+      </c>
+      <c r="AB12" s="11">
+        <v>5.7999999999999996E-3</v>
       </c>
       <c r="AC12" s="3">
         <v>104.898</v>
@@ -3516,7 +4019,7 @@
         <v>11</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="D13" s="3" t="s">
         <v>77</v>
@@ -3551,11 +4054,11 @@
       <c r="N13" s="3">
         <v>6072221.1399999997</v>
       </c>
-      <c r="O13">
-        <v>-35.447823</v>
-      </c>
-      <c r="P13">
-        <v>-72.321686</v>
+      <c r="O13" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="P13" s="3" t="s">
+        <v>100</v>
       </c>
       <c r="Q13" s="3">
         <v>-1.9300000000000001E-2</v>
@@ -3581,17 +4084,17 @@
       <c r="X13" s="3">
         <v>-3.1899999999999998E-2</v>
       </c>
-      <c r="Y13" s="3">
-        <v>7.4000000000000003E-3</v>
-      </c>
-      <c r="Z13" s="3">
-        <v>-3.0000000000000001E-3</v>
-      </c>
-      <c r="AA13" s="3">
-        <v>1.7500000000000002E-2</v>
-      </c>
-      <c r="AB13" s="3">
-        <v>2.86E-2</v>
+      <c r="Y13" s="11">
+        <v>-7.4000000000000003E-3</v>
+      </c>
+      <c r="Z13" s="11">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="AA13" s="11">
+        <v>-1.7500000000000002E-2</v>
+      </c>
+      <c r="AB13" s="11">
+        <v>-2.86E-2</v>
       </c>
       <c r="AC13" s="3">
         <v>67.301400000000001</v>
@@ -3746,10 +4249,10 @@
         <v>12</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="E14" s="3">
         <v>0.35</v>
@@ -3781,11 +4284,11 @@
       <c r="N14" s="3">
         <v>6072531.1399999997</v>
       </c>
-      <c r="O14">
-        <v>-35.445537000000002</v>
-      </c>
-      <c r="P14">
-        <v>-72.303200000000004</v>
+      <c r="O14" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="P14" s="3" t="s">
+        <v>102</v>
       </c>
       <c r="Q14" s="3">
         <v>0.27529999999999999</v>
@@ -3811,17 +4314,17 @@
       <c r="X14" s="3">
         <v>7.0300000000000001E-2</v>
       </c>
-      <c r="Y14" s="3">
-        <v>-0.45279999999999998</v>
-      </c>
-      <c r="Z14" s="3">
-        <v>-0.18110000000000001</v>
-      </c>
-      <c r="AA14" s="3">
-        <v>-9.5399999999999999E-2</v>
-      </c>
-      <c r="AB14" s="3">
-        <v>-8.48E-2</v>
+      <c r="Y14" s="11">
+        <v>0.45279999999999998</v>
+      </c>
+      <c r="Z14" s="11">
+        <v>0.18110000000000001</v>
+      </c>
+      <c r="AA14" s="11">
+        <v>9.5399999999999999E-2</v>
+      </c>
+      <c r="AB14" s="11">
+        <v>8.48E-2</v>
       </c>
       <c r="AC14" s="3">
         <v>80.782700000000006</v>
@@ -3976,10 +4479,10 @@
         <v>13</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="E15" s="3">
         <v>0.96</v>
@@ -4011,11 +4514,11 @@
       <c r="N15" s="3">
         <v>6071281.1399999997</v>
       </c>
-      <c r="O15">
-        <v>-35.457611999999997</v>
-      </c>
-      <c r="P15">
-        <v>-72.273515000000003</v>
+      <c r="O15" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="P15" s="3" t="s">
+        <v>104</v>
       </c>
       <c r="Q15" s="3">
         <v>0.2467</v>
@@ -4041,17 +4544,17 @@
       <c r="X15" s="3">
         <v>9.0300000000000005E-2</v>
       </c>
-      <c r="Y15" s="3">
-        <v>-0.41260000000000002</v>
-      </c>
-      <c r="Z15" s="3">
-        <v>-0.20669999999999999</v>
-      </c>
-      <c r="AA15" s="3">
-        <v>-0.15160000000000001</v>
-      </c>
-      <c r="AB15" s="3">
-        <v>-0.1389</v>
+      <c r="Y15" s="11">
+        <v>0.41260000000000002</v>
+      </c>
+      <c r="Z15" s="11">
+        <v>0.20669999999999999</v>
+      </c>
+      <c r="AA15" s="11">
+        <v>0.15160000000000001</v>
+      </c>
+      <c r="AB15" s="11">
+        <v>0.1389</v>
       </c>
       <c r="AC15" s="3">
         <v>-41.755600000000001</v>
@@ -4206,14 +4709,17 @@
         <v>14</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="E16" s="3">
         <v>0.37</v>
       </c>
+      <c r="F16" s="3">
+        <v>0.37</v>
+      </c>
       <c r="G16" s="3">
         <v>0.37</v>
       </c>
@@ -4238,11 +4744,11 @@
       <c r="N16" s="3">
         <v>6063441.1399999997</v>
       </c>
-      <c r="O16">
-        <v>-35.531201000000003</v>
-      </c>
-      <c r="P16">
-        <v>-72.163611000000003</v>
+      <c r="O16" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="P16" s="3" t="s">
+        <v>106</v>
       </c>
       <c r="Q16" s="3">
         <v>5.2400000000000002E-2</v>
@@ -4268,17 +4774,17 @@
       <c r="X16" s="3">
         <v>-2.1399999999999999E-2</v>
       </c>
-      <c r="Y16" s="3">
-        <v>-0.1211</v>
-      </c>
-      <c r="Z16" s="3">
-        <v>-4.0000000000000001E-3</v>
-      </c>
-      <c r="AA16" s="3">
-        <v>3.7999999999999999E-2</v>
-      </c>
-      <c r="AB16" s="3">
-        <v>4.8599999999999997E-2</v>
+      <c r="Y16" s="11">
+        <v>0.1211</v>
+      </c>
+      <c r="Z16" s="11">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="AA16" s="11">
+        <v>-3.7999999999999999E-2</v>
+      </c>
+      <c r="AB16" s="11">
+        <v>-4.8599999999999997E-2</v>
       </c>
       <c r="AC16" s="3">
         <v>173.5735</v>
@@ -4430,10 +4936,13 @@
         <v>14</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>81</v>
+        <v>107</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>78</v>
+        <v>80</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>261</v>
       </c>
       <c r="E17" s="3">
         <v>0</v>
@@ -4465,11 +4974,11 @@
       <c r="N17" s="3">
         <v>6074120</v>
       </c>
-      <c r="O17">
-        <v>-35.446821999999997</v>
-      </c>
-      <c r="P17">
-        <v>-72.326684999999998</v>
+      <c r="O17" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="P17" s="3" t="s">
+        <v>109</v>
       </c>
       <c r="Q17" s="3">
         <v>-3.56E-2</v>
@@ -4495,17 +5004,17 @@
       <c r="X17" s="3">
         <v>-8.9499999999999996E-2</v>
       </c>
-      <c r="Y17" s="3">
-        <v>4.07E-2</v>
-      </c>
-      <c r="Z17" s="3">
-        <v>4.2500000000000003E-2</v>
-      </c>
-      <c r="AA17" s="3">
-        <v>7.6399999999999996E-2</v>
-      </c>
-      <c r="AB17" s="3">
-        <v>7.7600000000000002E-2</v>
+      <c r="Y17" s="11">
+        <v>-4.07E-2</v>
+      </c>
+      <c r="Z17" s="11">
+        <v>-4.2500000000000003E-2</v>
+      </c>
+      <c r="AA17" s="11">
+        <v>-7.6399999999999996E-2</v>
+      </c>
+      <c r="AB17" s="11">
+        <v>-7.7600000000000002E-2</v>
       </c>
       <c r="AC17" s="3">
         <v>129.96080000000001</v>
@@ -4657,10 +5166,13 @@
         <v>15</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>82</v>
+        <v>110</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>78</v>
+        <v>80</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>260</v>
       </c>
       <c r="E18" s="3">
         <v>0</v>
@@ -4692,11 +5204,11 @@
       <c r="N18" s="3">
         <v>6078030</v>
       </c>
-      <c r="O18">
-        <v>-35.407586999999999</v>
-      </c>
-      <c r="P18">
-        <v>-72.152162000000004</v>
+      <c r="O18" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="P18" s="3" t="s">
+        <v>112</v>
       </c>
       <c r="Q18" s="3">
         <v>-6.0499999999999998E-2</v>
@@ -4722,17 +5234,17 @@
       <c r="X18" s="3">
         <v>-0.1681</v>
       </c>
-      <c r="Y18" s="3">
-        <v>8.2400000000000001E-2</v>
-      </c>
-      <c r="Z18" s="3">
-        <v>0.12970000000000001</v>
-      </c>
-      <c r="AA18" s="3">
-        <v>0.17560000000000001</v>
-      </c>
-      <c r="AB18" s="3">
-        <v>0.19939999999999999</v>
+      <c r="Y18" s="11">
+        <v>-8.2400000000000001E-2</v>
+      </c>
+      <c r="Z18" s="11">
+        <v>-0.12970000000000001</v>
+      </c>
+      <c r="AA18" s="11">
+        <v>-0.17560000000000001</v>
+      </c>
+      <c r="AB18" s="11">
+        <v>-0.19939999999999999</v>
       </c>
       <c r="AC18" s="3">
         <v>131.5729</v>
@@ -4887,14 +5399,17 @@
         <v>87</v>
       </c>
       <c r="C19" t="s">
-        <v>83</v>
+        <v>113</v>
       </c>
       <c r="D19" t="s">
-        <v>84</v>
+        <v>114</v>
       </c>
       <c r="E19">
         <v>1.27</v>
       </c>
+      <c r="F19">
+        <v>1.27</v>
+      </c>
       <c r="G19">
         <v>1.27</v>
       </c>
@@ -4919,11 +5434,11 @@
       <c r="N19">
         <v>6167460</v>
       </c>
-      <c r="O19">
-        <v>-34.604816999999997</v>
-      </c>
-      <c r="P19">
-        <v>-71.702171000000007</v>
+      <c r="O19" t="s">
+        <v>115</v>
+      </c>
+      <c r="P19" t="s">
+        <v>116</v>
       </c>
       <c r="Q19">
         <v>0.31819999999999998</v>
@@ -4949,17 +5464,17 @@
       <c r="X19">
         <v>0.10970000000000001</v>
       </c>
-      <c r="Y19">
-        <v>-0.37209999999999999</v>
-      </c>
-      <c r="Z19">
-        <v>-0.21099999999999999</v>
-      </c>
-      <c r="AA19">
-        <v>-0.12</v>
-      </c>
-      <c r="AB19">
-        <v>-0.16550000000000001</v>
+      <c r="Y19" s="10">
+        <v>0.37209999999999999</v>
+      </c>
+      <c r="Z19" s="10">
+        <v>0.21099999999999999</v>
+      </c>
+      <c r="AA19" s="10">
+        <v>0.12</v>
+      </c>
+      <c r="AB19" s="10">
+        <v>0.16550000000000001</v>
       </c>
       <c r="AC19">
         <v>-635.59519999999998</v>
@@ -5114,14 +5629,17 @@
         <v>88</v>
       </c>
       <c r="C20" t="s">
-        <v>83</v>
+        <v>113</v>
       </c>
       <c r="D20" t="s">
-        <v>84</v>
+        <v>114</v>
       </c>
       <c r="E20">
         <v>0.63</v>
       </c>
+      <c r="F20">
+        <v>0.63</v>
+      </c>
       <c r="G20">
         <v>0.63</v>
       </c>
@@ -5146,11 +5664,11 @@
       <c r="N20">
         <v>6170280</v>
       </c>
-      <c r="O20">
-        <v>-34.578279000000002</v>
-      </c>
-      <c r="P20">
-        <v>-71.752098000000004</v>
+      <c r="O20" t="s">
+        <v>117</v>
+      </c>
+      <c r="P20" t="s">
+        <v>118</v>
       </c>
       <c r="Q20">
         <v>7.9200000000000007E-2</v>
@@ -5176,17 +5694,17 @@
       <c r="X20">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="Y20">
-        <v>-0.16619999999999999</v>
-      </c>
-      <c r="Z20">
-        <v>-3.3300000000000003E-2</v>
-      </c>
-      <c r="AA20">
-        <v>-2.1299999999999999E-2</v>
-      </c>
-      <c r="AB20">
-        <v>-2.1700000000000001E-2</v>
+      <c r="Y20" s="10">
+        <v>0.16619999999999999</v>
+      </c>
+      <c r="Z20" s="10">
+        <v>3.3300000000000003E-2</v>
+      </c>
+      <c r="AA20" s="10">
+        <v>2.1299999999999999E-2</v>
+      </c>
+      <c r="AB20" s="10">
+        <v>2.1700000000000001E-2</v>
       </c>
       <c r="AC20">
         <v>-42.545999999999999</v>
@@ -5341,7 +5859,7 @@
         <v>89</v>
       </c>
       <c r="C21" t="s">
-        <v>83</v>
+        <v>113</v>
       </c>
       <c r="D21" t="s">
         <v>77</v>
@@ -5376,11 +5894,11 @@
       <c r="N21">
         <v>6169970</v>
       </c>
-      <c r="O21">
-        <v>-34.581865000000001</v>
-      </c>
-      <c r="P21">
-        <v>-71.716795000000005</v>
+      <c r="O21" t="s">
+        <v>119</v>
+      </c>
+      <c r="P21" t="s">
+        <v>120</v>
       </c>
       <c r="Q21">
         <v>0.27460000000000001</v>
@@ -5406,17 +5924,17 @@
       <c r="X21">
         <v>0.13070000000000001</v>
       </c>
-      <c r="Y21">
-        <v>-0.2974</v>
-      </c>
-      <c r="Z21">
-        <v>-0.27750000000000002</v>
-      </c>
-      <c r="AA21">
-        <v>-0.2155</v>
-      </c>
-      <c r="AB21">
-        <v>-0.17050000000000001</v>
+      <c r="Y21" s="10">
+        <v>0.2974</v>
+      </c>
+      <c r="Z21" s="10">
+        <v>0.27750000000000002</v>
+      </c>
+      <c r="AA21" s="10">
+        <v>0.2155</v>
+      </c>
+      <c r="AB21" s="10">
+        <v>0.17050000000000001</v>
       </c>
       <c r="AC21">
         <v>-181.5154</v>
@@ -5571,7 +6089,7 @@
         <v>90</v>
       </c>
       <c r="C22" t="s">
-        <v>83</v>
+        <v>113</v>
       </c>
       <c r="D22" t="s">
         <v>77</v>
@@ -5606,11 +6124,11 @@
       <c r="N22">
         <v>6170330</v>
       </c>
-      <c r="O22">
-        <v>-34.578657</v>
-      </c>
-      <c r="P22">
-        <v>-71.715164000000001</v>
+      <c r="O22" t="s">
+        <v>121</v>
+      </c>
+      <c r="P22" t="s">
+        <v>122</v>
       </c>
       <c r="Q22">
         <v>4.5199999999999997E-2</v>
@@ -5636,17 +6154,17 @@
       <c r="X22">
         <v>8.6099999999999996E-2</v>
       </c>
-      <c r="Y22">
-        <v>-6.83E-2</v>
-      </c>
-      <c r="Z22">
-        <v>-5.4100000000000002E-2</v>
-      </c>
-      <c r="AA22">
-        <v>-3.2000000000000001E-2</v>
-      </c>
-      <c r="AB22">
-        <v>-6.6100000000000006E-2</v>
+      <c r="Y22" s="10">
+        <v>6.83E-2</v>
+      </c>
+      <c r="Z22" s="10">
+        <v>5.4100000000000002E-2</v>
+      </c>
+      <c r="AA22" s="10">
+        <v>3.2000000000000001E-2</v>
+      </c>
+      <c r="AB22" s="10">
+        <v>6.6100000000000006E-2</v>
       </c>
       <c r="AC22">
         <v>21.1447</v>
@@ -5801,7 +6319,7 @@
         <v>91</v>
       </c>
       <c r="C23" t="s">
-        <v>83</v>
+        <v>113</v>
       </c>
       <c r="D23" t="s">
         <v>77</v>
@@ -5836,11 +6354,11 @@
       <c r="N23">
         <v>6170970</v>
       </c>
-      <c r="O23">
-        <v>-34.572924999999998</v>
-      </c>
-      <c r="P23">
-        <v>-71.713452000000004</v>
+      <c r="O23" t="s">
+        <v>123</v>
+      </c>
+      <c r="P23" t="s">
+        <v>124</v>
       </c>
       <c r="Q23">
         <v>0.24970000000000001</v>
@@ -5866,17 +6384,17 @@
       <c r="X23">
         <v>0.2666</v>
       </c>
-      <c r="Y23">
-        <v>-0.2671</v>
-      </c>
-      <c r="Z23">
-        <v>-0.33529999999999999</v>
-      </c>
-      <c r="AA23">
-        <v>-0.3029</v>
-      </c>
-      <c r="AB23">
-        <v>-0.29670000000000002</v>
+      <c r="Y23" s="10">
+        <v>0.2671</v>
+      </c>
+      <c r="Z23" s="10">
+        <v>0.33529999999999999</v>
+      </c>
+      <c r="AA23" s="10">
+        <v>0.3029</v>
+      </c>
+      <c r="AB23" s="10">
+        <v>0.29670000000000002</v>
       </c>
       <c r="AC23">
         <v>-254.74189999999999</v>
@@ -6031,14 +6549,17 @@
         <v>106</v>
       </c>
       <c r="C24" t="s">
-        <v>83</v>
+        <v>113</v>
       </c>
       <c r="D24" t="s">
-        <v>85</v>
+        <v>125</v>
       </c>
       <c r="E24">
         <v>0.88</v>
       </c>
+      <c r="F24">
+        <v>0.88</v>
+      </c>
       <c r="G24">
         <v>0.88</v>
       </c>
@@ -6063,11 +6584,11 @@
       <c r="N24">
         <v>6167670</v>
       </c>
-      <c r="O24">
-        <v>-34.603023999999998</v>
-      </c>
-      <c r="P24">
-        <v>-71.697642999999999</v>
+      <c r="O24" t="s">
+        <v>126</v>
+      </c>
+      <c r="P24" t="s">
+        <v>127</v>
       </c>
       <c r="Q24">
         <v>0.2712</v>
@@ -6093,17 +6614,17 @@
       <c r="X24">
         <v>7.3700000000000002E-2</v>
       </c>
-      <c r="Y24">
-        <v>-0.31990000000000002</v>
-      </c>
-      <c r="Z24">
-        <v>-0.1789</v>
-      </c>
-      <c r="AA24">
-        <v>-8.6400000000000005E-2</v>
-      </c>
-      <c r="AB24">
-        <v>-0.1079</v>
+      <c r="Y24" s="10">
+        <v>0.31990000000000002</v>
+      </c>
+      <c r="Z24" s="10">
+        <v>0.1789</v>
+      </c>
+      <c r="AA24" s="10">
+        <v>8.6400000000000005E-2</v>
+      </c>
+      <c r="AB24" s="10">
+        <v>0.1079</v>
       </c>
       <c r="AC24">
         <v>-248.64179999999999</v>
@@ -6258,10 +6779,10 @@
         <v>107</v>
       </c>
       <c r="C25" t="s">
-        <v>83</v>
+        <v>113</v>
       </c>
       <c r="D25" t="s">
-        <v>86</v>
+        <v>128</v>
       </c>
       <c r="E25">
         <v>1</v>
@@ -6293,11 +6814,11 @@
       <c r="N25">
         <v>6170090</v>
       </c>
-      <c r="O25">
-        <v>-34.580492999999997</v>
-      </c>
-      <c r="P25">
-        <v>-71.729828999999995</v>
+      <c r="O25" t="s">
+        <v>129</v>
+      </c>
+      <c r="P25" t="s">
+        <v>130</v>
       </c>
       <c r="Q25">
         <v>7.2599999999999998E-2</v>
@@ -6323,17 +6844,17 @@
       <c r="X25">
         <v>-4.1999999999999997E-3</v>
       </c>
-      <c r="Y25">
-        <v>-0.14760000000000001</v>
-      </c>
-      <c r="Z25">
-        <v>9.1999999999999998E-3</v>
-      </c>
-      <c r="AA25">
-        <v>-3.7499999999999999E-2</v>
-      </c>
-      <c r="AB25">
-        <v>-4.1399999999999999E-2</v>
+      <c r="Y25" s="10">
+        <v>0.14760000000000001</v>
+      </c>
+      <c r="Z25" s="10">
+        <v>-9.1999999999999998E-3</v>
+      </c>
+      <c r="AA25" s="10">
+        <v>3.7499999999999999E-2</v>
+      </c>
+      <c r="AB25" s="10">
+        <v>4.1399999999999999E-2</v>
       </c>
       <c r="AC25">
         <v>-111.4927</v>
@@ -6488,10 +7009,10 @@
         <v>108</v>
       </c>
       <c r="C26" t="s">
+        <v>113</v>
+      </c>
+      <c r="D26" t="s">
         <v>83</v>
-      </c>
-      <c r="D26" t="s">
-        <v>79</v>
       </c>
       <c r="E26">
         <v>0.83</v>
@@ -6523,11 +7044,11 @@
       <c r="N26">
         <v>6169900</v>
       </c>
-      <c r="O26">
-        <v>-34.582507999999997</v>
-      </c>
-      <c r="P26">
-        <v>-71.716271000000006</v>
+      <c r="O26" t="s">
+        <v>131</v>
+      </c>
+      <c r="P26" t="s">
+        <v>132</v>
       </c>
       <c r="Q26">
         <v>8.3500000000000005E-2</v>
@@ -6553,17 +7074,17 @@
       <c r="X26">
         <v>3.15E-2</v>
       </c>
-      <c r="Y26">
-        <v>-0.12939999999999999</v>
-      </c>
-      <c r="Z26">
-        <v>8.2000000000000007E-3</v>
-      </c>
-      <c r="AA26">
-        <v>-3.7699999999999997E-2</v>
-      </c>
-      <c r="AB26">
-        <v>-4.5400000000000003E-2</v>
+      <c r="Y26" s="10">
+        <v>0.12939999999999999</v>
+      </c>
+      <c r="Z26" s="10">
+        <v>-8.2000000000000007E-3</v>
+      </c>
+      <c r="AA26" s="10">
+        <v>3.7699999999999997E-2</v>
+      </c>
+      <c r="AB26" s="10">
+        <v>4.5400000000000003E-2</v>
       </c>
       <c r="AC26">
         <v>-101.8349</v>
@@ -6718,14 +7239,17 @@
         <v>109</v>
       </c>
       <c r="C27" t="s">
-        <v>83</v>
+        <v>113</v>
       </c>
       <c r="D27" t="s">
-        <v>87</v>
+        <v>133</v>
       </c>
       <c r="E27">
         <v>0.53</v>
       </c>
+      <c r="F27">
+        <v>0.53</v>
+      </c>
       <c r="G27">
         <v>0.53</v>
       </c>
@@ -6750,11 +7274,11 @@
       <c r="N27">
         <v>6170260</v>
       </c>
-      <c r="O27">
-        <v>-34.579276999999998</v>
-      </c>
-      <c r="P27">
-        <v>-71.715620999999999</v>
+      <c r="O27" t="s">
+        <v>134</v>
+      </c>
+      <c r="P27" t="s">
+        <v>135</v>
       </c>
       <c r="Q27">
         <v>0.13270000000000001</v>
@@ -6780,17 +7304,17 @@
       <c r="X27">
         <v>3.0599999999999999E-2</v>
       </c>
-      <c r="Y27">
-        <v>-0.24809999999999999</v>
-      </c>
-      <c r="Z27">
-        <v>-4.7500000000000001E-2</v>
-      </c>
-      <c r="AA27">
-        <v>-3.8300000000000001E-2</v>
-      </c>
-      <c r="AB27">
-        <v>-5.79E-2</v>
+      <c r="Y27" s="10">
+        <v>0.24809999999999999</v>
+      </c>
+      <c r="Z27" s="10">
+        <v>4.7500000000000001E-2</v>
+      </c>
+      <c r="AA27" s="10">
+        <v>3.8300000000000001E-2</v>
+      </c>
+      <c r="AB27" s="10">
+        <v>5.79E-2</v>
       </c>
       <c r="AC27">
         <v>-101.7102</v>
@@ -6945,7 +7469,7 @@
         <v>110</v>
       </c>
       <c r="C28" t="s">
-        <v>83</v>
+        <v>113</v>
       </c>
       <c r="D28" t="s">
         <v>77</v>
@@ -6980,11 +7504,11 @@
       <c r="N28">
         <v>6171020</v>
       </c>
-      <c r="O28">
-        <v>-34.572443999999997</v>
-      </c>
-      <c r="P28">
-        <v>-71.714853000000005</v>
+      <c r="O28" t="s">
+        <v>136</v>
+      </c>
+      <c r="P28" t="s">
+        <v>137</v>
       </c>
       <c r="Q28">
         <v>0.3135</v>
@@ -7010,17 +7534,17 @@
       <c r="X28">
         <v>0.18440000000000001</v>
       </c>
-      <c r="Y28">
-        <v>-0.43070000000000003</v>
-      </c>
-      <c r="Z28">
-        <v>-0.34079999999999999</v>
-      </c>
-      <c r="AA28">
-        <v>-0.27</v>
-      </c>
-      <c r="AB28">
-        <v>-0.23730000000000001</v>
+      <c r="Y28" s="10">
+        <v>0.43070000000000003</v>
+      </c>
+      <c r="Z28" s="10">
+        <v>0.34079999999999999</v>
+      </c>
+      <c r="AA28" s="10">
+        <v>0.27</v>
+      </c>
+      <c r="AB28" s="10">
+        <v>0.23730000000000001</v>
       </c>
       <c r="AC28">
         <v>-134.17070000000001</v>
@@ -7175,7 +7699,7 @@
         <v>111</v>
       </c>
       <c r="C29" t="s">
-        <v>83</v>
+        <v>113</v>
       </c>
       <c r="D29" t="s">
         <v>77</v>
@@ -7210,11 +7734,11 @@
       <c r="N29">
         <v>6168400</v>
       </c>
-      <c r="O29">
-        <v>-34.596384999999998</v>
-      </c>
-      <c r="P29">
-        <v>-71.700261999999995</v>
+      <c r="O29" t="s">
+        <v>138</v>
+      </c>
+      <c r="P29" t="s">
+        <v>139</v>
       </c>
       <c r="Q29">
         <v>4.9799999999999997E-2</v>
@@ -7240,17 +7764,17 @@
       <c r="X29">
         <v>8.3699999999999997E-2</v>
       </c>
-      <c r="Y29">
-        <v>-6.7900000000000002E-2</v>
-      </c>
-      <c r="Z29">
-        <v>-2.1299999999999999E-2</v>
-      </c>
-      <c r="AA29">
-        <v>-3.1600000000000003E-2</v>
-      </c>
-      <c r="AB29">
-        <v>-6.1899999999999997E-2</v>
+      <c r="Y29" s="10">
+        <v>6.7900000000000002E-2</v>
+      </c>
+      <c r="Z29" s="10">
+        <v>2.1299999999999999E-2</v>
+      </c>
+      <c r="AA29" s="10">
+        <v>3.1600000000000003E-2</v>
+      </c>
+      <c r="AB29" s="10">
+        <v>6.1899999999999997E-2</v>
       </c>
       <c r="AC29">
         <v>53.595799999999997</v>
@@ -7405,7 +7929,7 @@
         <v>112</v>
       </c>
       <c r="C30" t="s">
-        <v>83</v>
+        <v>113</v>
       </c>
       <c r="D30" t="s">
         <v>77</v>
@@ -7440,11 +7964,11 @@
       <c r="N30">
         <v>6168390</v>
       </c>
-      <c r="O30">
-        <v>-34.595198000000003</v>
+      <c r="O30" t="s">
+        <v>140</v>
       </c>
       <c r="P30" t="s">
-        <v>88</v>
+        <v>141</v>
       </c>
       <c r="Q30">
         <v>0.2389</v>
@@ -7470,17 +7994,17 @@
       <c r="X30">
         <v>0.21410000000000001</v>
       </c>
-      <c r="Y30">
-        <v>-0.3226</v>
-      </c>
-      <c r="Z30">
-        <v>-0.3155</v>
-      </c>
-      <c r="AA30">
-        <v>-0.2611</v>
-      </c>
-      <c r="AB30">
-        <v>-0.26519999999999999</v>
+      <c r="Y30" s="10">
+        <v>0.3226</v>
+      </c>
+      <c r="Z30" s="10">
+        <v>0.3155</v>
+      </c>
+      <c r="AA30" s="10">
+        <v>0.2611</v>
+      </c>
+      <c r="AB30" s="10">
+        <v>0.26519999999999999</v>
       </c>
       <c r="AC30">
         <v>-33.8033</v>
@@ -7635,7 +8159,7 @@
         <v>113</v>
       </c>
       <c r="C31" t="s">
-        <v>83</v>
+        <v>113</v>
       </c>
       <c r="D31" t="s">
         <v>77</v>
@@ -7670,11 +8194,11 @@
       <c r="N31">
         <v>6170270</v>
       </c>
-      <c r="O31">
-        <v>-34.578342999999997</v>
-      </c>
-      <c r="P31">
-        <v>-71.753298999999998</v>
+      <c r="O31" t="s">
+        <v>142</v>
+      </c>
+      <c r="P31" t="s">
+        <v>143</v>
       </c>
       <c r="Q31">
         <v>0.184</v>
@@ -7700,17 +8224,17 @@
       <c r="X31">
         <v>0.248</v>
       </c>
-      <c r="Y31">
-        <v>-0.22059999999999999</v>
-      </c>
-      <c r="Z31">
-        <v>-0.31900000000000001</v>
-      </c>
-      <c r="AA31">
-        <v>-0.31240000000000001</v>
-      </c>
-      <c r="AB31">
-        <v>-0.26</v>
+      <c r="Y31" s="10">
+        <v>0.22059999999999999</v>
+      </c>
+      <c r="Z31" s="10">
+        <v>0.31900000000000001</v>
+      </c>
+      <c r="AA31" s="10">
+        <v>0.31240000000000001</v>
+      </c>
+      <c r="AB31" s="10">
+        <v>0.26</v>
       </c>
       <c r="AC31">
         <v>-148.66040000000001</v>
@@ -7865,14 +8389,17 @@
         <v>15</v>
       </c>
       <c r="C32" t="s">
-        <v>83</v>
+        <v>113</v>
       </c>
       <c r="D32" t="s">
-        <v>84</v>
+        <v>114</v>
       </c>
       <c r="E32">
         <v>0.97</v>
       </c>
+      <c r="F32">
+        <v>0.97</v>
+      </c>
       <c r="G32">
         <v>0.97</v>
       </c>
@@ -7897,11 +8424,11 @@
       <c r="N32">
         <v>6169870</v>
       </c>
-      <c r="O32">
-        <v>-34.582462</v>
-      </c>
-      <c r="P32">
-        <v>-71.730438000000007</v>
+      <c r="O32" t="s">
+        <v>144</v>
+      </c>
+      <c r="P32" t="s">
+        <v>145</v>
       </c>
       <c r="Q32">
         <v>0.24790000000000001</v>
@@ -7927,17 +8454,17 @@
       <c r="X32">
         <v>8.5400000000000004E-2</v>
       </c>
-      <c r="Y32">
-        <v>-0.32240000000000002</v>
-      </c>
-      <c r="Z32">
-        <v>-0.127</v>
-      </c>
-      <c r="AA32">
-        <v>-0.1142</v>
-      </c>
-      <c r="AB32">
-        <v>-0.12039999999999999</v>
+      <c r="Y32" s="10">
+        <v>0.32240000000000002</v>
+      </c>
+      <c r="Z32" s="10">
+        <v>0.127</v>
+      </c>
+      <c r="AA32" s="10">
+        <v>0.1142</v>
+      </c>
+      <c r="AB32" s="10">
+        <v>0.12039999999999999</v>
       </c>
       <c r="AC32">
         <v>-393.68860000000001</v>
@@ -8092,10 +8619,10 @@
         <v>16</v>
       </c>
       <c r="C33" t="s">
+        <v>113</v>
+      </c>
+      <c r="D33" t="s">
         <v>83</v>
-      </c>
-      <c r="D33" t="s">
-        <v>79</v>
       </c>
       <c r="E33">
         <v>0.17</v>
@@ -8127,11 +8654,11 @@
       <c r="N33">
         <v>6169800</v>
       </c>
-      <c r="O33">
-        <v>-34.583392000000003</v>
-      </c>
-      <c r="P33">
-        <v>-71.717061999999999</v>
+      <c r="O33" t="s">
+        <v>146</v>
+      </c>
+      <c r="P33" t="s">
+        <v>147</v>
       </c>
       <c r="Q33">
         <v>7.9500000000000001E-2</v>
@@ -8157,17 +8684,17 @@
       <c r="X33">
         <v>5.57E-2</v>
       </c>
-      <c r="Y33">
-        <v>-0.1227</v>
-      </c>
-      <c r="Z33">
-        <v>-2.3800000000000002E-2</v>
-      </c>
-      <c r="AA33">
-        <v>-6.2799999999999995E-2</v>
-      </c>
-      <c r="AB33">
-        <v>-8.0100000000000005E-2</v>
+      <c r="Y33" s="10">
+        <v>0.1227</v>
+      </c>
+      <c r="Z33" s="10">
+        <v>2.3800000000000002E-2</v>
+      </c>
+      <c r="AA33" s="10">
+        <v>6.2799999999999995E-2</v>
+      </c>
+      <c r="AB33" s="10">
+        <v>8.0100000000000005E-2</v>
       </c>
       <c r="AC33">
         <v>33.819200000000002</v>
@@ -8322,7 +8849,7 @@
         <v>17</v>
       </c>
       <c r="C34" t="s">
-        <v>83</v>
+        <v>113</v>
       </c>
       <c r="D34" t="s">
         <v>77</v>
@@ -8357,11 +8884,11 @@
       <c r="N34">
         <v>6170280</v>
       </c>
-      <c r="O34">
-        <v>-34.579112000000002</v>
-      </c>
-      <c r="P34">
-        <v>-71.714961000000002</v>
+      <c r="O34" t="s">
+        <v>148</v>
+      </c>
+      <c r="P34" t="s">
+        <v>149</v>
       </c>
       <c r="Q34">
         <v>0.1419</v>
@@ -8387,17 +8914,17 @@
       <c r="X34">
         <v>0.1164</v>
       </c>
-      <c r="Y34">
-        <v>-0.19189999999999999</v>
-      </c>
-      <c r="Z34">
-        <v>-0.2326</v>
-      </c>
-      <c r="AA34">
-        <v>-0.18509999999999999</v>
-      </c>
-      <c r="AB34">
-        <v>-0.1575</v>
+      <c r="Y34" s="10">
+        <v>0.19189999999999999</v>
+      </c>
+      <c r="Z34" s="10">
+        <v>0.2326</v>
+      </c>
+      <c r="AA34" s="10">
+        <v>0.18509999999999999</v>
+      </c>
+      <c r="AB34" s="10">
+        <v>0.1575</v>
       </c>
       <c r="AC34">
         <v>4.4633000000000003</v>
@@ -8552,7 +9079,7 @@
         <v>18</v>
       </c>
       <c r="C35" t="s">
-        <v>83</v>
+        <v>113</v>
       </c>
       <c r="D35" t="s">
         <v>77</v>
@@ -8587,11 +9114,11 @@
       <c r="N35">
         <v>6170970</v>
       </c>
-      <c r="O35">
-        <v>-34.572887000000001</v>
-      </c>
-      <c r="P35">
-        <v>-71.715194999999994</v>
+      <c r="O35" t="s">
+        <v>150</v>
+      </c>
+      <c r="P35" t="s">
+        <v>151</v>
       </c>
       <c r="Q35">
         <v>0.21179999999999999</v>
@@ -8617,17 +9144,17 @@
       <c r="X35">
         <v>9.7199999999999995E-2</v>
       </c>
-      <c r="Y35">
-        <v>-0.1401</v>
-      </c>
-      <c r="Z35">
-        <v>-0.22009999999999999</v>
-      </c>
-      <c r="AA35">
-        <v>-0.154</v>
-      </c>
-      <c r="AB35">
-        <v>-0.13439999999999999</v>
+      <c r="Y35" s="10">
+        <v>0.1401</v>
+      </c>
+      <c r="Z35" s="10">
+        <v>0.22009999999999999</v>
+      </c>
+      <c r="AA35" s="10">
+        <v>0.154</v>
+      </c>
+      <c r="AB35" s="10">
+        <v>0.13439999999999999</v>
       </c>
       <c r="AC35">
         <v>-8.2212999999999994</v>
@@ -8782,7 +9309,7 @@
         <v>19</v>
       </c>
       <c r="C36" t="s">
-        <v>83</v>
+        <v>113</v>
       </c>
       <c r="D36" t="s">
         <v>77</v>
@@ -8817,11 +9344,11 @@
       <c r="N36">
         <v>6171220</v>
       </c>
-      <c r="O36">
-        <v>-34.570726999999998</v>
-      </c>
-      <c r="P36">
-        <v>-71.710982999999999</v>
+      <c r="O36" t="s">
+        <v>152</v>
+      </c>
+      <c r="P36" t="s">
+        <v>153</v>
       </c>
       <c r="Q36">
         <v>0.26550000000000001</v>
@@ -8847,17 +9374,17 @@
       <c r="X36">
         <v>0.17849999999999999</v>
       </c>
-      <c r="Y36">
-        <v>-0.23580000000000001</v>
-      </c>
-      <c r="Z36">
-        <v>-0.30869999999999997</v>
-      </c>
-      <c r="AA36">
-        <v>-0.20669999999999999</v>
-      </c>
-      <c r="AB36">
-        <v>-0.19209999999999999</v>
+      <c r="Y36" s="10">
+        <v>0.23580000000000001</v>
+      </c>
+      <c r="Z36" s="10">
+        <v>0.30869999999999997</v>
+      </c>
+      <c r="AA36" s="10">
+        <v>0.20669999999999999</v>
+      </c>
+      <c r="AB36" s="10">
+        <v>0.19209999999999999</v>
       </c>
       <c r="AC36">
         <v>12.802899999999999</v>
@@ -9009,10 +9536,13 @@
         <v>34</v>
       </c>
       <c r="B37" t="s">
-        <v>81</v>
+        <v>107</v>
       </c>
       <c r="C37" t="s">
-        <v>83</v>
+        <v>113</v>
+      </c>
+      <c r="D37" t="s">
+        <v>260</v>
       </c>
       <c r="E37">
         <v>0</v>
@@ -9044,11 +9574,11 @@
       <c r="N37">
         <v>6210810</v>
       </c>
-      <c r="O37">
-        <v>-34.210720000000002</v>
-      </c>
-      <c r="P37">
-        <v>-71.848375000000004</v>
+      <c r="O37" t="s">
+        <v>154</v>
+      </c>
+      <c r="P37" t="s">
+        <v>155</v>
       </c>
       <c r="Q37">
         <v>-3.8800000000000001E-2</v>
@@ -9074,17 +9604,17 @@
       <c r="X37">
         <v>-7.2400000000000006E-2</v>
       </c>
-      <c r="Y37">
-        <v>6.13E-2</v>
-      </c>
-      <c r="Z37">
-        <v>9.9400000000000002E-2</v>
-      </c>
-      <c r="AA37">
-        <v>0.10150000000000001</v>
-      </c>
-      <c r="AB37">
-        <v>8.4099999999999994E-2</v>
+      <c r="Y37" s="10">
+        <v>-6.13E-2</v>
+      </c>
+      <c r="Z37" s="10">
+        <v>-9.9400000000000002E-2</v>
+      </c>
+      <c r="AA37" s="10">
+        <v>-0.10150000000000001</v>
+      </c>
+      <c r="AB37" s="10">
+        <v>-8.4099999999999994E-2</v>
       </c>
       <c r="AC37">
         <v>136.16800000000001</v>
@@ -9236,10 +9766,13 @@
         <v>35</v>
       </c>
       <c r="B38" t="s">
-        <v>82</v>
+        <v>110</v>
       </c>
       <c r="C38" t="s">
-        <v>83</v>
+        <v>113</v>
+      </c>
+      <c r="D38" t="s">
+        <v>260</v>
       </c>
       <c r="E38">
         <v>0</v>
@@ -9271,11 +9804,11 @@
       <c r="N38">
         <v>6198390</v>
       </c>
-      <c r="O38">
-        <v>-34.323191000000001</v>
-      </c>
-      <c r="P38">
-        <v>-71.826312999999999</v>
+      <c r="O38" t="s">
+        <v>156</v>
+      </c>
+      <c r="P38" t="s">
+        <v>157</v>
       </c>
       <c r="Q38">
         <v>-2.0299999999999999E-2</v>
@@ -9301,17 +9834,17 @@
       <c r="X38">
         <v>-1.9800000000000002E-2</v>
       </c>
-      <c r="Y38">
-        <v>3.6700000000000003E-2</v>
-      </c>
-      <c r="Z38">
-        <v>5.0599999999999999E-2</v>
-      </c>
-      <c r="AA38">
-        <v>7.46E-2</v>
-      </c>
-      <c r="AB38">
-        <v>5.1499999999999997E-2</v>
+      <c r="Y38" s="10">
+        <v>-3.6700000000000003E-2</v>
+      </c>
+      <c r="Z38" s="10">
+        <v>-5.0599999999999999E-2</v>
+      </c>
+      <c r="AA38" s="10">
+        <v>-7.46E-2</v>
+      </c>
+      <c r="AB38" s="10">
+        <v>-5.1499999999999997E-2</v>
       </c>
       <c r="AC38">
         <v>108.3142</v>
@@ -9466,10 +9999,10 @@
         <v>7</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>89</v>
+        <v>158</v>
       </c>
       <c r="E39" s="3">
         <v>0.24</v>
@@ -9501,11 +10034,11 @@
       <c r="N39" s="3">
         <v>6095010</v>
       </c>
-      <c r="O39">
-        <v>-35.255617000000001</v>
-      </c>
-      <c r="P39">
-        <v>-72.198149999999998</v>
+      <c r="O39" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="P39" s="3" t="s">
+        <v>160</v>
       </c>
       <c r="Q39" s="3">
         <v>0.35730000000000001</v>
@@ -9531,17 +10064,17 @@
       <c r="X39" s="3">
         <v>0.1221</v>
       </c>
-      <c r="Y39" s="3">
-        <v>-0.53839999999999999</v>
-      </c>
-      <c r="Z39" s="3">
-        <v>-0.20230000000000001</v>
-      </c>
-      <c r="AA39" s="3">
-        <v>-0.15939999999999999</v>
-      </c>
-      <c r="AB39" s="3">
-        <v>-0.13389999999999999</v>
+      <c r="Y39" s="11">
+        <v>0.53839999999999999</v>
+      </c>
+      <c r="Z39" s="11">
+        <v>0.20230000000000001</v>
+      </c>
+      <c r="AA39" s="11">
+        <v>0.15939999999999999</v>
+      </c>
+      <c r="AB39" s="11">
+        <v>0.13389999999999999</v>
       </c>
       <c r="AC39" s="3">
         <v>-131.92250000000001</v>
@@ -9696,10 +10229,10 @@
         <v>6</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>90</v>
+        <v>161</v>
       </c>
       <c r="E40" s="3">
         <v>0.26</v>
@@ -9731,11 +10264,11 @@
       <c r="N40" s="3">
         <v>6094750</v>
       </c>
-      <c r="O40">
-        <v>-35.258389999999999</v>
-      </c>
-      <c r="P40">
-        <v>-72.216735999999997</v>
+      <c r="O40" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="P40" s="3" t="s">
+        <v>163</v>
       </c>
       <c r="Q40" s="3">
         <v>0.29360000000000003</v>
@@ -9761,17 +10294,17 @@
       <c r="X40" s="3">
         <v>0.1618</v>
       </c>
-      <c r="Y40" s="3">
-        <v>-0.4234</v>
-      </c>
-      <c r="Z40" s="3">
-        <v>-0.26219999999999999</v>
-      </c>
-      <c r="AA40" s="3">
-        <v>-0.1716</v>
-      </c>
-      <c r="AB40" s="3">
-        <v>-0.19309999999999999</v>
+      <c r="Y40" s="11">
+        <v>0.4234</v>
+      </c>
+      <c r="Z40" s="11">
+        <v>0.26219999999999999</v>
+      </c>
+      <c r="AA40" s="11">
+        <v>0.1716</v>
+      </c>
+      <c r="AB40" s="11">
+        <v>0.19309999999999999</v>
       </c>
       <c r="AC40" s="3">
         <v>-10.1242</v>
@@ -9926,10 +10459,10 @@
         <v>3</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>91</v>
+        <v>164</v>
       </c>
       <c r="E41" s="3">
         <v>0.89</v>
@@ -9961,11 +10494,11 @@
       <c r="N41" s="3">
         <v>6095050</v>
       </c>
-      <c r="O41">
-        <v>-35.255406999999998</v>
-      </c>
-      <c r="P41">
-        <v>-72.204639999999998</v>
+      <c r="O41" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="P41" s="3" t="s">
+        <v>166</v>
       </c>
       <c r="Q41" s="3">
         <v>0.22339999999999999</v>
@@ -9991,17 +10524,17 @@
       <c r="X41" s="3">
         <v>-3.9300000000000002E-2</v>
       </c>
-      <c r="Y41" s="3">
-        <v>-0.34449999999999997</v>
-      </c>
-      <c r="Z41" s="3">
-        <v>-8.4099999999999994E-2</v>
-      </c>
-      <c r="AA41" s="3">
-        <v>-1.23E-2</v>
-      </c>
-      <c r="AB41" s="3">
-        <v>9.9000000000000008E-3</v>
+      <c r="Y41" s="11">
+        <v>0.34449999999999997</v>
+      </c>
+      <c r="Z41" s="11">
+        <v>8.4099999999999994E-2</v>
+      </c>
+      <c r="AA41" s="11">
+        <v>1.23E-2</v>
+      </c>
+      <c r="AB41" s="11">
+        <v>-9.9000000000000008E-3</v>
       </c>
       <c r="AC41" s="3">
         <v>-23.981400000000001</v>
@@ -10156,10 +10689,10 @@
         <v>2</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>92</v>
+        <v>167</v>
       </c>
       <c r="E42" s="3">
         <v>1.39</v>
@@ -10191,11 +10724,11 @@
       <c r="N42" s="3">
         <v>6094740</v>
       </c>
-      <c r="O42">
-        <v>-35.258305</v>
-      </c>
-      <c r="P42">
-        <v>-72.209155999999993</v>
+      <c r="O42" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="P42" s="3" t="s">
+        <v>169</v>
       </c>
       <c r="Q42" s="3">
         <v>0.23169999999999999</v>
@@ -10221,17 +10754,17 @@
       <c r="X42" s="3">
         <v>-6.6E-3</v>
       </c>
-      <c r="Y42" s="3">
-        <v>-0.32769999999999999</v>
-      </c>
-      <c r="Z42" s="3">
-        <v>-7.7200000000000005E-2</v>
-      </c>
-      <c r="AA42" s="3">
-        <v>1.8700000000000001E-2</v>
-      </c>
-      <c r="AB42" s="3">
-        <v>-2.0400000000000001E-2</v>
+      <c r="Y42" s="11">
+        <v>0.32769999999999999</v>
+      </c>
+      <c r="Z42" s="11">
+        <v>7.7200000000000005E-2</v>
+      </c>
+      <c r="AA42" s="11">
+        <v>-1.8700000000000001E-2</v>
+      </c>
+      <c r="AB42" s="11">
+        <v>2.0400000000000001E-2</v>
       </c>
       <c r="AC42" s="3">
         <v>14.336399999999999</v>
@@ -10386,7 +10919,7 @@
         <v>8</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="D43" s="3" t="s">
         <v>77</v>
@@ -10421,11 +10954,11 @@
       <c r="N43" s="3">
         <v>6095090</v>
       </c>
-      <c r="O43">
-        <v>-35.255127999999999</v>
-      </c>
-      <c r="P43">
-        <v>-72.208166000000006</v>
+      <c r="O43" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="P43" s="3" t="s">
+        <v>171</v>
       </c>
       <c r="Q43" s="3">
         <v>0.31259999999999999</v>
@@ -10451,17 +10984,17 @@
       <c r="X43" s="3">
         <v>4.3999999999999997E-2</v>
       </c>
-      <c r="Y43" s="3">
-        <v>-0.47739999999999999</v>
-      </c>
-      <c r="Z43" s="3">
-        <v>-0.19570000000000001</v>
-      </c>
-      <c r="AA43" s="3">
-        <v>-0.1145</v>
-      </c>
-      <c r="AB43" s="3">
-        <v>-5.3499999999999999E-2</v>
+      <c r="Y43" s="11">
+        <v>0.47739999999999999</v>
+      </c>
+      <c r="Z43" s="11">
+        <v>0.19570000000000001</v>
+      </c>
+      <c r="AA43" s="11">
+        <v>0.1145</v>
+      </c>
+      <c r="AB43" s="11">
+        <v>5.3499999999999999E-2</v>
       </c>
       <c r="AC43" s="3">
         <v>-34.886400000000002</v>
@@ -10616,10 +11149,10 @@
         <v>4</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>93</v>
+        <v>172</v>
       </c>
       <c r="E44" s="3">
         <v>1.08</v>
@@ -10651,11 +11184,11 @@
       <c r="N44" s="3">
         <v>6094970</v>
       </c>
-      <c r="O44">
-        <v>-35.256200999999997</v>
-      </c>
-      <c r="P44">
-        <v>-72.207800000000006</v>
+      <c r="O44" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="P44" s="3" t="s">
+        <v>174</v>
       </c>
       <c r="Q44" s="3">
         <v>0.22470000000000001</v>
@@ -10681,17 +11214,17 @@
       <c r="X44" s="3">
         <v>0.10249999999999999</v>
       </c>
-      <c r="Y44" s="3">
-        <v>-0.3886</v>
-      </c>
-      <c r="Z44" s="3">
-        <v>-0.16420000000000001</v>
-      </c>
-      <c r="AA44" s="3">
-        <v>-0.18640000000000001</v>
-      </c>
-      <c r="AB44" s="3">
-        <v>-0.12609999999999999</v>
+      <c r="Y44" s="11">
+        <v>0.3886</v>
+      </c>
+      <c r="Z44" s="11">
+        <v>0.16420000000000001</v>
+      </c>
+      <c r="AA44" s="11">
+        <v>0.18640000000000001</v>
+      </c>
+      <c r="AB44" s="11">
+        <v>0.12609999999999999</v>
       </c>
       <c r="AC44" s="3">
         <v>-36.506</v>
@@ -10846,10 +11379,10 @@
         <v>5</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>94</v>
+        <v>175</v>
       </c>
       <c r="E45" s="3">
         <v>1.1000000000000001</v>
@@ -10881,11 +11414,11 @@
       <c r="N45" s="3">
         <v>6094280</v>
       </c>
-      <c r="O45">
-        <v>-35.261896</v>
-      </c>
-      <c r="P45">
-        <v>-72.185186000000002</v>
+      <c r="O45" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="P45" s="3" t="s">
+        <v>177</v>
       </c>
       <c r="Q45" s="3">
         <v>0.3664</v>
@@ -10911,17 +11444,17 @@
       <c r="X45" s="3">
         <v>2.29E-2</v>
       </c>
-      <c r="Y45" s="3">
-        <v>-0.44979999999999998</v>
-      </c>
-      <c r="Z45" s="3">
-        <v>-0.29899999999999999</v>
-      </c>
-      <c r="AA45" s="3">
-        <v>-0.13700000000000001</v>
-      </c>
-      <c r="AB45" s="3">
-        <v>-6.3700000000000007E-2</v>
+      <c r="Y45" s="11">
+        <v>0.44979999999999998</v>
+      </c>
+      <c r="Z45" s="11">
+        <v>0.29899999999999999</v>
+      </c>
+      <c r="AA45" s="11">
+        <v>0.13700000000000001</v>
+      </c>
+      <c r="AB45" s="11">
+        <v>6.3700000000000007E-2</v>
       </c>
       <c r="AC45" s="3">
         <v>-85.884500000000003</v>
@@ -11076,10 +11609,10 @@
         <v>3</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>94</v>
+        <v>175</v>
       </c>
       <c r="E46" s="3">
         <v>0.32</v>
@@ -11111,11 +11644,11 @@
       <c r="N46" s="3">
         <v>6094250</v>
       </c>
-      <c r="O46">
-        <v>-35.262143000000002</v>
-      </c>
-      <c r="P46">
-        <v>-72.184188000000006</v>
+      <c r="O46" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="P46" s="3" t="s">
+        <v>179</v>
       </c>
       <c r="Q46" s="3">
         <v>0.33810000000000001</v>
@@ -11141,17 +11674,17 @@
       <c r="X46" s="3">
         <v>0.25740000000000002</v>
       </c>
-      <c r="Y46" s="3">
-        <v>-0.54</v>
-      </c>
-      <c r="Z46" s="3">
-        <v>-0.34310000000000002</v>
-      </c>
-      <c r="AA46" s="3">
-        <v>-0.31609999999999999</v>
-      </c>
-      <c r="AB46" s="3">
-        <v>-0.29189999999999999</v>
+      <c r="Y46" s="11">
+        <v>0.54</v>
+      </c>
+      <c r="Z46" s="11">
+        <v>0.34310000000000002</v>
+      </c>
+      <c r="AA46" s="11">
+        <v>0.31609999999999999</v>
+      </c>
+      <c r="AB46" s="11">
+        <v>0.29189999999999999</v>
       </c>
       <c r="AC46" s="3">
         <v>3.4763999999999999</v>
@@ -11306,10 +11839,10 @@
         <v>10</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>94</v>
+        <v>175</v>
       </c>
       <c r="E47" s="3">
         <v>0.22</v>
@@ -11341,11 +11874,11 @@
       <c r="N47" s="3">
         <v>6085390</v>
       </c>
-      <c r="O47">
-        <v>-35.341411000000001</v>
-      </c>
-      <c r="P47">
-        <v>-72.158997999999997</v>
+      <c r="O47" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="P47" s="3" t="s">
+        <v>181</v>
       </c>
       <c r="Q47" s="3">
         <v>0.151</v>
@@ -11371,17 +11904,17 @@
       <c r="X47" s="3">
         <v>7.1499999999999994E-2</v>
       </c>
-      <c r="Y47" s="3">
-        <v>-0.1888</v>
-      </c>
-      <c r="Z47" s="3">
-        <v>-0.15720000000000001</v>
-      </c>
-      <c r="AA47" s="3">
-        <v>-9.3899999999999997E-2</v>
-      </c>
-      <c r="AB47" s="3">
-        <v>-8.8200000000000001E-2</v>
+      <c r="Y47" s="11">
+        <v>0.1888</v>
+      </c>
+      <c r="Z47" s="11">
+        <v>0.15720000000000001</v>
+      </c>
+      <c r="AA47" s="11">
+        <v>9.3899999999999997E-2</v>
+      </c>
+      <c r="AB47" s="11">
+        <v>8.8200000000000001E-2</v>
       </c>
       <c r="AC47" s="3">
         <v>97.260999999999996</v>
@@ -11536,10 +12069,10 @@
         <v>6</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>94</v>
+        <v>175</v>
       </c>
       <c r="E48" s="3">
         <v>0.5</v>
@@ -11571,11 +12104,11 @@
       <c r="N48" s="3">
         <v>6085640</v>
       </c>
-      <c r="O48">
-        <v>-35.339266000000002</v>
-      </c>
-      <c r="P48">
-        <v>-72.163583000000003</v>
+      <c r="O48" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="P48" s="3" t="s">
+        <v>183</v>
       </c>
       <c r="Q48" s="3">
         <v>0.31119999999999998</v>
@@ -11601,17 +12134,17 @@
       <c r="X48" s="3">
         <v>8.3599999999999994E-2</v>
       </c>
-      <c r="Y48" s="3">
-        <v>-0.47560000000000002</v>
-      </c>
-      <c r="Z48" s="3">
-        <v>-0.26640000000000003</v>
-      </c>
-      <c r="AA48" s="3">
-        <v>-0.17130000000000001</v>
-      </c>
-      <c r="AB48" s="3">
-        <v>-0.1074</v>
+      <c r="Y48" s="11">
+        <v>0.47560000000000002</v>
+      </c>
+      <c r="Z48" s="11">
+        <v>0.26640000000000003</v>
+      </c>
+      <c r="AA48" s="11">
+        <v>0.17130000000000001</v>
+      </c>
+      <c r="AB48" s="11">
+        <v>0.1074</v>
       </c>
       <c r="AC48" s="3">
         <v>-59.849800000000002</v>
@@ -11766,10 +12299,10 @@
         <v>9</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="D49" s="3" t="s">
-        <v>94</v>
+        <v>175</v>
       </c>
       <c r="E49" s="3">
         <v>0.13</v>
@@ -11801,11 +12334,11 @@
       <c r="N49" s="3">
         <v>6085480</v>
       </c>
-      <c r="O49">
-        <v>-35.340685999999998</v>
-      </c>
-      <c r="P49">
-        <v>-72.162654000000003</v>
+      <c r="O49" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="P49" s="3" t="s">
+        <v>185</v>
       </c>
       <c r="Q49" s="3">
         <v>0.23769999999999999</v>
@@ -11831,17 +12364,17 @@
       <c r="X49" s="3">
         <v>4.53E-2</v>
       </c>
-      <c r="Y49" s="3">
-        <v>-0.36409999999999998</v>
-      </c>
-      <c r="Z49" s="3">
-        <v>-0.2288</v>
-      </c>
-      <c r="AA49" s="3">
-        <v>-0.13120000000000001</v>
-      </c>
-      <c r="AB49" s="3">
-        <v>-6.9800000000000001E-2</v>
+      <c r="Y49" s="11">
+        <v>0.36409999999999998</v>
+      </c>
+      <c r="Z49" s="11">
+        <v>0.2288</v>
+      </c>
+      <c r="AA49" s="11">
+        <v>0.13120000000000001</v>
+      </c>
+      <c r="AB49" s="11">
+        <v>6.9800000000000001E-2</v>
       </c>
       <c r="AC49" s="3">
         <v>31.020299999999999</v>
@@ -11996,10 +12529,10 @@
         <v>4</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>94</v>
+        <v>175</v>
       </c>
       <c r="E50" s="3">
         <v>7.0000000000000007E-2</v>
@@ -12031,11 +12564,11 @@
       <c r="N50" s="3">
         <v>6086160</v>
       </c>
-      <c r="O50">
-        <v>-35.337600000000002</v>
-      </c>
-      <c r="P50">
-        <v>-72.171329999999998</v>
+      <c r="O50" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="P50" s="3" t="s">
+        <v>187</v>
       </c>
       <c r="Q50" s="3">
         <v>0.24429999999999999</v>
@@ -12061,17 +12594,17 @@
       <c r="X50" s="3">
         <v>5.8500000000000003E-2</v>
       </c>
-      <c r="Y50" s="3">
-        <v>-0.25640000000000002</v>
-      </c>
-      <c r="Z50" s="3">
-        <v>-0.1938</v>
-      </c>
-      <c r="AA50" s="3">
-        <v>-0.14660000000000001</v>
-      </c>
-      <c r="AB50" s="3">
-        <v>-0.1009</v>
+      <c r="Y50" s="11">
+        <v>0.25640000000000002</v>
+      </c>
+      <c r="Z50" s="11">
+        <v>0.1938</v>
+      </c>
+      <c r="AA50" s="11">
+        <v>0.14660000000000001</v>
+      </c>
+      <c r="AB50" s="11">
+        <v>0.1009</v>
       </c>
       <c r="AC50" s="3">
         <v>55.776800000000001</v>
@@ -12226,10 +12759,10 @@
         <v>6</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>94</v>
+        <v>175</v>
       </c>
       <c r="E51" s="3">
         <v>0.44</v>
@@ -12261,11 +12794,11 @@
       <c r="N51" s="3">
         <v>6085770</v>
       </c>
-      <c r="O51">
-        <v>-35.338161999999997</v>
-      </c>
-      <c r="P51">
-        <v>-72.166482000000002</v>
+      <c r="O51" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="P51" s="3" t="s">
+        <v>189</v>
       </c>
       <c r="Q51" s="3">
         <v>0.247</v>
@@ -12291,17 +12824,17 @@
       <c r="X51" s="3">
         <v>9.06E-2</v>
       </c>
-      <c r="Y51" s="3">
-        <v>-0.2838</v>
-      </c>
-      <c r="Z51" s="3">
-        <v>-0.28449999999999998</v>
-      </c>
-      <c r="AA51" s="3">
-        <v>-0.17449999999999999</v>
-      </c>
-      <c r="AB51" s="3">
-        <v>-0.1263</v>
+      <c r="Y51" s="11">
+        <v>0.2838</v>
+      </c>
+      <c r="Z51" s="11">
+        <v>0.28449999999999998</v>
+      </c>
+      <c r="AA51" s="11">
+        <v>0.17449999999999999</v>
+      </c>
+      <c r="AB51" s="11">
+        <v>0.1263</v>
       </c>
       <c r="AC51" s="3">
         <v>113.3445</v>
@@ -12456,10 +12989,10 @@
         <v>11</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="D52" s="3" t="s">
-        <v>94</v>
+        <v>175</v>
       </c>
       <c r="E52" s="3">
         <v>1</v>
@@ -12491,11 +13024,11 @@
       <c r="N52" s="3">
         <v>6085030</v>
       </c>
-      <c r="O52">
-        <v>-35.344957999999998</v>
-      </c>
-      <c r="P52">
-        <v>-72.171854999999994</v>
+      <c r="O52" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="P52" s="3" t="s">
+        <v>191</v>
       </c>
       <c r="Q52" s="3">
         <v>0.28079999999999999</v>
@@ -12521,17 +13054,17 @@
       <c r="X52" s="3">
         <v>2.9999999999999997E-4</v>
       </c>
-      <c r="Y52" s="3">
-        <v>-0.35360000000000003</v>
-      </c>
-      <c r="Z52" s="3">
-        <v>-0.11899999999999999</v>
-      </c>
-      <c r="AA52" s="3">
-        <v>-4.53E-2</v>
-      </c>
-      <c r="AB52" s="3">
-        <v>-1.9800000000000002E-2</v>
+      <c r="Y52" s="11">
+        <v>0.35360000000000003</v>
+      </c>
+      <c r="Z52" s="11">
+        <v>0.11899999999999999</v>
+      </c>
+      <c r="AA52" s="11">
+        <v>4.53E-2</v>
+      </c>
+      <c r="AB52" s="11">
+        <v>1.9800000000000002E-2</v>
       </c>
       <c r="AC52" s="3">
         <v>-0.33589999999999998</v>
@@ -12686,10 +13219,10 @@
         <v>10</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>94</v>
+        <v>175</v>
       </c>
       <c r="E53" s="3">
         <v>0.19</v>
@@ -12721,11 +13254,11 @@
       <c r="N53" s="3">
         <v>6084970</v>
       </c>
-      <c r="O53">
-        <v>-35.345519000000003</v>
-      </c>
-      <c r="P53">
-        <v>-72.172714999999997</v>
+      <c r="O53" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="P53" s="3" t="s">
+        <v>193</v>
       </c>
       <c r="Q53" s="3">
         <v>0.31780000000000003</v>
@@ -12751,17 +13284,17 @@
       <c r="X53" s="3">
         <v>-3.9199999999999999E-2</v>
       </c>
-      <c r="Y53" s="3">
-        <v>-0.37590000000000001</v>
-      </c>
-      <c r="Z53" s="3">
-        <v>-0.18870000000000001</v>
-      </c>
-      <c r="AA53" s="3">
-        <v>-7.6499999999999999E-2</v>
-      </c>
-      <c r="AB53" s="3">
-        <v>1E-3</v>
+      <c r="Y53" s="11">
+        <v>0.37590000000000001</v>
+      </c>
+      <c r="Z53" s="11">
+        <v>0.18870000000000001</v>
+      </c>
+      <c r="AA53" s="11">
+        <v>7.6499999999999999E-2</v>
+      </c>
+      <c r="AB53" s="11">
+        <v>-1E-3</v>
       </c>
       <c r="AC53" s="3">
         <v>7.8341000000000003</v>
@@ -12916,10 +13449,10 @@
         <v>7</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="D54" s="3" t="s">
-        <v>90</v>
+        <v>161</v>
       </c>
       <c r="E54" s="3">
         <v>0.5</v>
@@ -12951,11 +13484,11 @@
       <c r="N54" s="3">
         <v>6084650</v>
       </c>
-      <c r="O54">
-        <v>-35.349158000000003</v>
-      </c>
-      <c r="P54">
-        <v>-72.205151999999998</v>
+      <c r="O54" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="P54" s="3" t="s">
+        <v>195</v>
       </c>
       <c r="Q54" s="3">
         <v>0.37659999999999999</v>
@@ -12981,17 +13514,17 @@
       <c r="X54" s="3">
         <v>7.6499999999999999E-2</v>
       </c>
-      <c r="Y54" s="3">
-        <v>-0.496</v>
-      </c>
-      <c r="Z54" s="3">
-        <v>-0.35670000000000002</v>
-      </c>
-      <c r="AA54" s="3">
-        <v>-0.1996</v>
-      </c>
-      <c r="AB54" s="3">
-        <v>-0.13109999999999999</v>
+      <c r="Y54" s="11">
+        <v>0.496</v>
+      </c>
+      <c r="Z54" s="11">
+        <v>0.35670000000000002</v>
+      </c>
+      <c r="AA54" s="11">
+        <v>0.1996</v>
+      </c>
+      <c r="AB54" s="11">
+        <v>0.13109999999999999</v>
       </c>
       <c r="AC54" s="3">
         <v>-57.799300000000002</v>
@@ -13146,7 +13679,7 @@
         <v>8</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="D55" s="3" t="s">
         <v>77</v>
@@ -13181,11 +13714,11 @@
       <c r="N55" s="3">
         <v>6081530</v>
       </c>
-      <c r="O55">
-        <v>-35.378418000000003</v>
-      </c>
-      <c r="P55">
-        <v>-72.254767000000001</v>
+      <c r="O55" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="P55" s="3" t="s">
+        <v>197</v>
       </c>
       <c r="Q55" s="3">
         <v>0.31530000000000002</v>
@@ -13211,17 +13744,17 @@
       <c r="X55" s="3">
         <v>0.28110000000000002</v>
       </c>
-      <c r="Y55" s="3">
-        <v>-0.57140000000000002</v>
-      </c>
-      <c r="Z55" s="3">
-        <v>-0.47510000000000002</v>
-      </c>
-      <c r="AA55" s="3">
-        <v>-0.40699999999999997</v>
-      </c>
-      <c r="AB55" s="3">
-        <v>-0.35560000000000003</v>
+      <c r="Y55" s="11">
+        <v>0.57140000000000002</v>
+      </c>
+      <c r="Z55" s="11">
+        <v>0.47510000000000002</v>
+      </c>
+      <c r="AA55" s="11">
+        <v>0.40699999999999997</v>
+      </c>
+      <c r="AB55" s="11">
+        <v>0.35560000000000003</v>
       </c>
       <c r="AC55" s="3">
         <v>39.804099999999998</v>
@@ -13376,10 +13909,10 @@
         <v>7</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="D56" s="3" t="s">
-        <v>95</v>
+        <v>198</v>
       </c>
       <c r="E56" s="3">
         <v>0.65</v>
@@ -13411,11 +13944,11 @@
       <c r="N56" s="3">
         <v>6051280</v>
       </c>
-      <c r="O56">
-        <v>-35.65128</v>
-      </c>
-      <c r="P56">
-        <v>-72.264007000000007</v>
+      <c r="O56" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="P56" s="3" t="s">
+        <v>200</v>
       </c>
       <c r="Q56" s="3">
         <v>0.1071</v>
@@ -13441,17 +13974,17 @@
       <c r="X56" s="3">
         <v>4.1399999999999999E-2</v>
       </c>
-      <c r="Y56" s="3">
-        <v>-0.1226</v>
-      </c>
-      <c r="Z56" s="3">
-        <v>-8.2199999999999995E-2</v>
-      </c>
-      <c r="AA56" s="3">
-        <v>-6.1100000000000002E-2</v>
-      </c>
-      <c r="AB56" s="3">
-        <v>-6.7699999999999996E-2</v>
+      <c r="Y56" s="11">
+        <v>0.1226</v>
+      </c>
+      <c r="Z56" s="11">
+        <v>8.2199999999999995E-2</v>
+      </c>
+      <c r="AA56" s="11">
+        <v>6.1100000000000002E-2</v>
+      </c>
+      <c r="AB56" s="11">
+        <v>6.7699999999999996E-2</v>
       </c>
       <c r="AC56" s="3">
         <v>72.146799999999999</v>
@@ -13606,10 +14139,10 @@
         <v>9</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="D57" s="3" t="s">
-        <v>96</v>
+        <v>201</v>
       </c>
       <c r="E57" s="3">
         <v>0.5</v>
@@ -13641,11 +14174,11 @@
       <c r="N57" s="3">
         <v>6051420</v>
       </c>
-      <c r="O57">
-        <v>-35.649745000000003</v>
-      </c>
-      <c r="P57">
-        <v>-72.252022999999994</v>
+      <c r="O57" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="P57" s="3" t="s">
+        <v>203</v>
       </c>
       <c r="Q57" s="3">
         <v>0.12239999999999999</v>
@@ -13671,17 +14204,17 @@
       <c r="X57" s="3">
         <v>6.9199999999999998E-2</v>
       </c>
-      <c r="Y57" s="3">
-        <v>-0.2268</v>
-      </c>
-      <c r="Z57" s="3">
-        <v>-0.26779999999999998</v>
-      </c>
-      <c r="AA57" s="3">
-        <v>-0.17330000000000001</v>
-      </c>
-      <c r="AB57" s="3">
-        <v>-0.10829999999999999</v>
+      <c r="Y57" s="11">
+        <v>0.2268</v>
+      </c>
+      <c r="Z57" s="11">
+        <v>0.26779999999999998</v>
+      </c>
+      <c r="AA57" s="11">
+        <v>0.17330000000000001</v>
+      </c>
+      <c r="AB57" s="11">
+        <v>0.10829999999999999</v>
       </c>
       <c r="AC57" s="3">
         <v>69.338999999999999</v>
@@ -13836,10 +14369,10 @@
         <v>11</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="D58" s="3" t="s">
-        <v>96</v>
+        <v>201</v>
       </c>
       <c r="E58" s="3">
         <v>0.25</v>
@@ -13871,11 +14404,11 @@
       <c r="N58" s="3">
         <v>6051400</v>
       </c>
-      <c r="O58">
-        <v>-35.649912999999998</v>
-      </c>
-      <c r="P58">
-        <v>-72.251464999999996</v>
+      <c r="O58" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="P58" s="3" t="s">
+        <v>205</v>
       </c>
       <c r="Q58" s="3">
         <v>0.1472</v>
@@ -13901,17 +14434,17 @@
       <c r="X58" s="3">
         <v>4.2799999999999998E-2</v>
       </c>
-      <c r="Y58" s="3">
-        <v>-0.23960000000000001</v>
-      </c>
-      <c r="Z58" s="3">
-        <v>-0.2306</v>
-      </c>
-      <c r="AA58" s="3">
-        <v>-0.16370000000000001</v>
-      </c>
-      <c r="AB58" s="3">
-        <v>-6.7400000000000002E-2</v>
+      <c r="Y58" s="11">
+        <v>0.23960000000000001</v>
+      </c>
+      <c r="Z58" s="11">
+        <v>0.2306</v>
+      </c>
+      <c r="AA58" s="11">
+        <v>0.16370000000000001</v>
+      </c>
+      <c r="AB58" s="11">
+        <v>6.7400000000000002E-2</v>
       </c>
       <c r="AC58" s="3">
         <v>148.15389999999999</v>
@@ -14066,10 +14599,10 @@
         <v>12</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="D59" s="3" t="s">
-        <v>97</v>
+        <v>206</v>
       </c>
       <c r="E59" s="3">
         <v>0.31</v>
@@ -14101,11 +14634,11 @@
       <c r="N59" s="3">
         <v>6051010</v>
       </c>
-      <c r="O59">
-        <v>-35.653557999999997</v>
-      </c>
-      <c r="P59">
-        <v>-72.257193000000001</v>
+      <c r="O59" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="P59" s="3" t="s">
+        <v>208</v>
       </c>
       <c r="Q59" s="3">
         <v>0.1009</v>
@@ -14131,17 +14664,17 @@
       <c r="X59" s="3">
         <v>8.3199999999999996E-2</v>
       </c>
-      <c r="Y59" s="3">
-        <v>-0.1842</v>
-      </c>
-      <c r="Z59" s="3">
-        <v>-0.1028</v>
-      </c>
-      <c r="AA59" s="3">
-        <v>-0.1203</v>
-      </c>
-      <c r="AB59" s="3">
-        <v>-9.9000000000000005E-2</v>
+      <c r="Y59" s="11">
+        <v>0.1842</v>
+      </c>
+      <c r="Z59" s="11">
+        <v>0.1028</v>
+      </c>
+      <c r="AA59" s="11">
+        <v>0.1203</v>
+      </c>
+      <c r="AB59" s="11">
+        <v>9.9000000000000005E-2</v>
       </c>
       <c r="AC59" s="3">
         <v>11.0374</v>
@@ -14296,10 +14829,10 @@
         <v>10</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="D60" s="3" t="s">
-        <v>98</v>
+        <v>209</v>
       </c>
       <c r="E60" s="3">
         <v>0.5</v>
@@ -14331,11 +14864,11 @@
       <c r="N60" s="3">
         <v>6050180</v>
       </c>
-      <c r="O60">
-        <v>-35.662177999999997</v>
-      </c>
-      <c r="P60">
-        <v>-72.307592</v>
+      <c r="O60" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="P60" s="3" t="s">
+        <v>211</v>
       </c>
       <c r="Q60" s="3">
         <v>0.2475</v>
@@ -14361,17 +14894,17 @@
       <c r="X60" s="3">
         <v>0.1072</v>
       </c>
-      <c r="Y60" s="3">
-        <v>-0.24990000000000001</v>
-      </c>
-      <c r="Z60" s="3">
-        <v>-0.25690000000000002</v>
-      </c>
-      <c r="AA60" s="3">
-        <v>-0.1608</v>
-      </c>
-      <c r="AB60" s="3">
-        <v>-0.1193</v>
+      <c r="Y60" s="11">
+        <v>0.24990000000000001</v>
+      </c>
+      <c r="Z60" s="11">
+        <v>0.25690000000000002</v>
+      </c>
+      <c r="AA60" s="11">
+        <v>0.1608</v>
+      </c>
+      <c r="AB60" s="11">
+        <v>0.1193</v>
       </c>
       <c r="AC60" s="3">
         <v>76.863100000000003</v>
@@ -14526,10 +15059,10 @@
         <v>11</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="D61" s="3" t="s">
-        <v>99</v>
+        <v>212</v>
       </c>
       <c r="E61" s="3">
         <v>0.81</v>
@@ -14561,11 +15094,11 @@
       <c r="N61" s="3">
         <v>6050120</v>
       </c>
-      <c r="O61">
-        <v>-35.662813999999997</v>
-      </c>
-      <c r="P61">
-        <v>-72.311877999999993</v>
+      <c r="O61" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="P61" s="3" t="s">
+        <v>214</v>
       </c>
       <c r="Q61" s="3">
         <v>5.1400000000000001E-2</v>
@@ -14591,17 +15124,17 @@
       <c r="X61" s="3">
         <v>0.35089999999999999</v>
       </c>
-      <c r="Y61" s="3">
-        <v>-6.6400000000000001E-2</v>
-      </c>
-      <c r="Z61" s="3">
-        <v>-0.21410000000000001</v>
-      </c>
-      <c r="AA61" s="3">
-        <v>-0.17730000000000001</v>
-      </c>
-      <c r="AB61" s="3">
-        <v>-0.39460000000000001</v>
+      <c r="Y61" s="11">
+        <v>6.6400000000000001E-2</v>
+      </c>
+      <c r="Z61" s="11">
+        <v>0.21410000000000001</v>
+      </c>
+      <c r="AA61" s="11">
+        <v>0.17730000000000001</v>
+      </c>
+      <c r="AB61" s="11">
+        <v>0.39460000000000001</v>
       </c>
       <c r="AC61" s="3">
         <v>97.034000000000006</v>
@@ -14753,10 +15286,13 @@
         <v>59</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>81</v>
+        <v>107</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>78</v>
+        <v>80</v>
+      </c>
+      <c r="D62" s="3" t="s">
+        <v>260</v>
       </c>
       <c r="E62" s="3">
         <v>0</v>
@@ -14788,11 +15324,11 @@
       <c r="N62" s="3">
         <v>6074120</v>
       </c>
-      <c r="O62">
-        <v>-35.446821999999997</v>
-      </c>
-      <c r="P62">
-        <v>-72.326684999999998</v>
+      <c r="O62" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="P62" s="3" t="s">
+        <v>109</v>
       </c>
       <c r="Q62" s="3">
         <v>-5.5500000000000001E-2</v>
@@ -14818,17 +15354,17 @@
       <c r="X62" s="3">
         <v>-0.2</v>
       </c>
-      <c r="Y62" s="3">
-        <v>6.8099999999999994E-2</v>
-      </c>
-      <c r="Z62" s="3">
-        <v>0.1457</v>
-      </c>
-      <c r="AA62" s="3">
-        <v>0.20530000000000001</v>
-      </c>
-      <c r="AB62" s="3">
-        <v>0.21679999999999999</v>
+      <c r="Y62" s="11">
+        <v>-6.8099999999999994E-2</v>
+      </c>
+      <c r="Z62" s="11">
+        <v>-0.1457</v>
+      </c>
+      <c r="AA62" s="11">
+        <v>-0.20530000000000001</v>
+      </c>
+      <c r="AB62" s="11">
+        <v>-0.21679999999999999</v>
       </c>
       <c r="AC62" s="3">
         <v>269.28910000000002</v>
@@ -14980,10 +15516,13 @@
         <v>60</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>82</v>
+        <v>110</v>
       </c>
       <c r="C63" s="3" t="s">
-        <v>78</v>
+        <v>80</v>
+      </c>
+      <c r="D63" s="3" t="s">
+        <v>260</v>
       </c>
       <c r="E63" s="3">
         <v>0</v>
@@ -15015,11 +15554,11 @@
       <c r="N63" s="3">
         <v>6078030</v>
       </c>
-      <c r="O63">
-        <v>-35.407586999999999</v>
-      </c>
-      <c r="P63">
-        <v>-72.152162000000004</v>
+      <c r="O63" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="P63" s="3" t="s">
+        <v>112</v>
       </c>
       <c r="Q63" s="3">
         <v>-3.5000000000000001E-3</v>
@@ -15045,17 +15584,17 @@
       <c r="X63" s="3">
         <v>-0.1396</v>
       </c>
-      <c r="Y63" s="3">
-        <v>3.3399999999999999E-2</v>
-      </c>
-      <c r="Z63" s="3">
-        <v>7.7399999999999997E-2</v>
-      </c>
-      <c r="AA63" s="3">
-        <v>0.12540000000000001</v>
-      </c>
-      <c r="AB63" s="3">
-        <v>0.12559999999999999</v>
+      <c r="Y63" s="11">
+        <v>-3.3399999999999999E-2</v>
+      </c>
+      <c r="Z63" s="11">
+        <v>-7.7399999999999997E-2</v>
+      </c>
+      <c r="AA63" s="11">
+        <v>-0.12540000000000001</v>
+      </c>
+      <c r="AB63" s="11">
+        <v>-0.12559999999999999</v>
       </c>
       <c r="AC63" s="3">
         <v>154.8503</v>
@@ -15210,10 +15749,10 @@
         <v>1</v>
       </c>
       <c r="C64" t="s">
-        <v>83</v>
+        <v>113</v>
       </c>
       <c r="D64" t="s">
-        <v>100</v>
+        <v>215</v>
       </c>
       <c r="E64">
         <v>0.88</v>
@@ -15245,11 +15784,11 @@
       <c r="N64">
         <v>6212190</v>
       </c>
-      <c r="O64">
-        <v>-34.199693000000003</v>
-      </c>
-      <c r="P64">
-        <v>-71.786922000000004</v>
+      <c r="O64" t="s">
+        <v>216</v>
+      </c>
+      <c r="P64" t="s">
+        <v>217</v>
       </c>
       <c r="Q64">
         <v>0.1018</v>
@@ -15275,17 +15814,17 @@
       <c r="X64">
         <v>-1.06E-2</v>
       </c>
-      <c r="Y64">
-        <v>-0.27850000000000003</v>
-      </c>
-      <c r="Z64">
-        <v>-3.4000000000000002E-2</v>
-      </c>
-      <c r="AA64">
-        <v>-1.34E-2</v>
-      </c>
-      <c r="AB64">
-        <v>-5.4000000000000003E-3</v>
+      <c r="Y64" s="10">
+        <v>0.27850000000000003</v>
+      </c>
+      <c r="Z64" s="10">
+        <v>3.4000000000000002E-2</v>
+      </c>
+      <c r="AA64" s="10">
+        <v>1.34E-2</v>
+      </c>
+      <c r="AB64" s="10">
+        <v>5.4000000000000003E-3</v>
       </c>
       <c r="AC64">
         <v>-9.9482999999999997</v>
@@ -15440,7 +15979,7 @@
         <v>1</v>
       </c>
       <c r="C65" t="s">
-        <v>83</v>
+        <v>113</v>
       </c>
       <c r="D65" t="s">
         <v>77</v>
@@ -15475,11 +16014,11 @@
       <c r="N65">
         <v>6209390</v>
       </c>
-      <c r="O65">
-        <v>-34.225146000000002</v>
-      </c>
-      <c r="P65">
-        <v>-71.777559999999994</v>
+      <c r="O65" t="s">
+        <v>218</v>
+      </c>
+      <c r="P65" t="s">
+        <v>219</v>
       </c>
       <c r="Q65">
         <v>7.0000000000000001E-3</v>
@@ -15505,17 +16044,17 @@
       <c r="X65">
         <v>0.1081</v>
       </c>
-      <c r="Y65">
-        <v>-1.8100000000000002E-2</v>
-      </c>
-      <c r="Z65">
-        <v>-6.6600000000000006E-2</v>
-      </c>
-      <c r="AA65">
-        <v>-0.06</v>
-      </c>
-      <c r="AB65">
-        <v>-9.2499999999999999E-2</v>
+      <c r="Y65" s="10">
+        <v>1.8100000000000002E-2</v>
+      </c>
+      <c r="Z65" s="10">
+        <v>6.6600000000000006E-2</v>
+      </c>
+      <c r="AA65" s="10">
+        <v>0.06</v>
+      </c>
+      <c r="AB65" s="10">
+        <v>9.2499999999999999E-2</v>
       </c>
       <c r="AC65">
         <v>110.3629</v>
@@ -15670,7 +16209,7 @@
         <v>1</v>
       </c>
       <c r="C66" t="s">
-        <v>83</v>
+        <v>113</v>
       </c>
       <c r="D66" t="s">
         <v>77</v>
@@ -15705,11 +16244,11 @@
       <c r="N66">
         <v>6209080</v>
       </c>
-      <c r="O66">
-        <v>-34.227966000000002</v>
-      </c>
-      <c r="P66">
-        <v>-71.776458000000005</v>
+      <c r="O66" t="s">
+        <v>220</v>
+      </c>
+      <c r="P66" t="s">
+        <v>221</v>
       </c>
       <c r="Q66">
         <v>-2.2499999999999999E-2</v>
@@ -15735,17 +16274,17 @@
       <c r="X66">
         <v>0.1817</v>
       </c>
-      <c r="Y66">
-        <v>1.8100000000000002E-2</v>
-      </c>
-      <c r="Z66">
-        <v>1.4500000000000001E-2</v>
-      </c>
-      <c r="AA66">
-        <v>9.4999999999999998E-3</v>
-      </c>
-      <c r="AB66">
-        <v>-0.16619999999999999</v>
+      <c r="Y66" s="10">
+        <v>-1.8100000000000002E-2</v>
+      </c>
+      <c r="Z66" s="10">
+        <v>-1.4500000000000001E-2</v>
+      </c>
+      <c r="AA66" s="10">
+        <v>-9.4999999999999998E-3</v>
+      </c>
+      <c r="AB66" s="10">
+        <v>0.16619999999999999</v>
       </c>
       <c r="AC66">
         <v>101.801</v>
@@ -15900,10 +16439,10 @@
         <v>1</v>
       </c>
       <c r="C67" t="s">
-        <v>83</v>
+        <v>113</v>
       </c>
       <c r="D67" t="s">
-        <v>101</v>
+        <v>222</v>
       </c>
       <c r="E67">
         <v>0.92</v>
@@ -15935,11 +16474,11 @@
       <c r="N67">
         <v>6208620</v>
       </c>
-      <c r="O67">
-        <v>-34.232050999999998</v>
-      </c>
-      <c r="P67">
-        <v>-71.779196999999996</v>
+      <c r="O67" t="s">
+        <v>223</v>
+      </c>
+      <c r="P67" t="s">
+        <v>224</v>
       </c>
       <c r="Q67">
         <v>0.37640000000000001</v>
@@ -15965,17 +16504,17 @@
       <c r="X67">
         <v>7.7299999999999994E-2</v>
       </c>
-      <c r="Y67">
-        <v>-0.43680000000000002</v>
-      </c>
-      <c r="Z67">
-        <v>-0.1547</v>
-      </c>
-      <c r="AA67">
-        <v>-0.182</v>
-      </c>
-      <c r="AB67">
-        <v>-0.1118</v>
+      <c r="Y67" s="10">
+        <v>0.43680000000000002</v>
+      </c>
+      <c r="Z67" s="10">
+        <v>0.1547</v>
+      </c>
+      <c r="AA67" s="10">
+        <v>0.182</v>
+      </c>
+      <c r="AB67" s="10">
+        <v>0.1118</v>
       </c>
       <c r="AC67">
         <v>-389.59800000000001</v>
@@ -16130,10 +16669,10 @@
         <v>1</v>
       </c>
       <c r="C68" t="s">
-        <v>83</v>
+        <v>113</v>
       </c>
       <c r="D68" t="s">
-        <v>93</v>
+        <v>172</v>
       </c>
       <c r="E68">
         <v>0.83</v>
@@ -16165,11 +16704,11 @@
       <c r="N68">
         <v>6189900</v>
       </c>
-      <c r="O68">
-        <v>-34.400869</v>
-      </c>
-      <c r="P68">
-        <v>-71.776287999999994</v>
+      <c r="O68" t="s">
+        <v>225</v>
+      </c>
+      <c r="P68" t="s">
+        <v>226</v>
       </c>
       <c r="Q68">
         <v>0.24970000000000001</v>
@@ -16195,17 +16734,17 @@
       <c r="X68">
         <v>1.54E-2</v>
       </c>
-      <c r="Y68">
-        <v>-0.3377</v>
-      </c>
-      <c r="Z68">
-        <v>-0.1447</v>
-      </c>
-      <c r="AA68">
-        <v>-4.7199999999999999E-2</v>
-      </c>
-      <c r="AB68">
-        <v>-5.9799999999999999E-2</v>
+      <c r="Y68" s="10">
+        <v>0.3377</v>
+      </c>
+      <c r="Z68" s="10">
+        <v>0.1447</v>
+      </c>
+      <c r="AA68" s="10">
+        <v>4.7199999999999999E-2</v>
+      </c>
+      <c r="AB68" s="10">
+        <v>5.9799999999999999E-2</v>
       </c>
       <c r="AC68">
         <v>-434.08150000000001</v>
@@ -16360,10 +16899,10 @@
         <v>3</v>
       </c>
       <c r="C69" t="s">
-        <v>83</v>
+        <v>113</v>
       </c>
       <c r="D69" t="s">
-        <v>93</v>
+        <v>172</v>
       </c>
       <c r="E69">
         <v>1.25</v>
@@ -16395,11 +16934,11 @@
       <c r="N69">
         <v>6190050</v>
       </c>
-      <c r="O69">
-        <v>-34.399484000000001</v>
-      </c>
-      <c r="P69">
-        <v>-71.777765000000002</v>
+      <c r="O69" t="s">
+        <v>227</v>
+      </c>
+      <c r="P69" t="s">
+        <v>228</v>
       </c>
       <c r="Q69">
         <v>0.3448</v>
@@ -16425,17 +16964,17 @@
       <c r="X69">
         <v>0.13789999999999999</v>
       </c>
-      <c r="Y69">
-        <v>-0.48039999999999999</v>
-      </c>
-      <c r="Z69">
-        <v>-0.28860000000000002</v>
-      </c>
-      <c r="AA69">
-        <v>-0.14410000000000001</v>
-      </c>
-      <c r="AB69">
-        <v>-0.1618</v>
+      <c r="Y69" s="10">
+        <v>0.48039999999999999</v>
+      </c>
+      <c r="Z69" s="10">
+        <v>0.28860000000000002</v>
+      </c>
+      <c r="AA69" s="10">
+        <v>0.14410000000000001</v>
+      </c>
+      <c r="AB69" s="10">
+        <v>0.1618</v>
       </c>
       <c r="AC69">
         <v>-400.38240000000002</v>
@@ -16590,10 +17129,10 @@
         <v>4</v>
       </c>
       <c r="C70" t="s">
-        <v>83</v>
+        <v>113</v>
       </c>
       <c r="D70" t="s">
-        <v>93</v>
+        <v>172</v>
       </c>
       <c r="E70">
         <v>0.38</v>
@@ -16625,11 +17164,11 @@
       <c r="N70">
         <v>6191760</v>
       </c>
-      <c r="O70">
-        <v>-34.384005999999999</v>
-      </c>
-      <c r="P70">
-        <v>-71.780516000000006</v>
+      <c r="O70" t="s">
+        <v>229</v>
+      </c>
+      <c r="P70" t="s">
+        <v>230</v>
       </c>
       <c r="Q70">
         <v>0.1089</v>
@@ -16655,17 +17194,17 @@
       <c r="X70">
         <v>0.25629999999999997</v>
       </c>
-      <c r="Y70">
-        <v>-0.18290000000000001</v>
-      </c>
-      <c r="Z70">
-        <v>-0.30080000000000001</v>
-      </c>
-      <c r="AA70">
-        <v>-0.3135</v>
-      </c>
-      <c r="AB70">
-        <v>-0.30449999999999999</v>
+      <c r="Y70" s="10">
+        <v>0.18290000000000001</v>
+      </c>
+      <c r="Z70" s="10">
+        <v>0.30080000000000001</v>
+      </c>
+      <c r="AA70" s="10">
+        <v>0.3135</v>
+      </c>
+      <c r="AB70" s="10">
+        <v>0.30449999999999999</v>
       </c>
       <c r="AC70">
         <v>-14.5547</v>
@@ -16820,10 +17359,10 @@
         <v>5</v>
       </c>
       <c r="C71" t="s">
-        <v>83</v>
+        <v>113</v>
       </c>
       <c r="D71" t="s">
-        <v>102</v>
+        <v>231</v>
       </c>
       <c r="E71">
         <v>0.22</v>
@@ -16855,11 +17394,11 @@
       <c r="N71">
         <v>6192320</v>
       </c>
-      <c r="O71">
-        <v>-34.378309000000002</v>
-      </c>
-      <c r="P71">
-        <v>-71.808920999999998</v>
+      <c r="O71" t="s">
+        <v>232</v>
+      </c>
+      <c r="P71" t="s">
+        <v>233</v>
       </c>
       <c r="Q71">
         <v>0.35649999999999998</v>
@@ -16885,17 +17424,17 @@
       <c r="X71">
         <v>9.8000000000000004E-2</v>
       </c>
-      <c r="Y71">
-        <v>-0.45569999999999999</v>
-      </c>
-      <c r="Z71">
-        <v>-0.27729999999999999</v>
-      </c>
-      <c r="AA71">
-        <v>-0.1366</v>
-      </c>
-      <c r="AB71">
-        <v>-0.1391</v>
+      <c r="Y71" s="10">
+        <v>0.45569999999999999</v>
+      </c>
+      <c r="Z71" s="10">
+        <v>0.27729999999999999</v>
+      </c>
+      <c r="AA71" s="10">
+        <v>0.1366</v>
+      </c>
+      <c r="AB71" s="10">
+        <v>0.1391</v>
       </c>
       <c r="AC71">
         <v>-309.27229999999997</v>
@@ -17050,10 +17589,10 @@
         <v>4</v>
       </c>
       <c r="C72" t="s">
-        <v>83</v>
+        <v>113</v>
       </c>
       <c r="D72" t="s">
-        <v>103</v>
+        <v>234</v>
       </c>
       <c r="E72">
         <v>0.99</v>
@@ -17085,11 +17624,11 @@
       <c r="N72">
         <v>6192070</v>
       </c>
-      <c r="O72">
-        <v>-34.380516</v>
-      </c>
-      <c r="P72">
-        <v>-71.810952</v>
+      <c r="O72" t="s">
+        <v>235</v>
+      </c>
+      <c r="P72" t="s">
+        <v>236</v>
       </c>
       <c r="Q72">
         <v>0.28639999999999999</v>
@@ -17115,17 +17654,17 @@
       <c r="X72">
         <v>0.1479</v>
       </c>
-      <c r="Y72">
-        <v>-0.32550000000000001</v>
-      </c>
-      <c r="Z72">
-        <v>-0.24490000000000001</v>
-      </c>
-      <c r="AA72">
-        <v>-0.15679999999999999</v>
-      </c>
-      <c r="AB72">
-        <v>-0.19769999999999999</v>
+      <c r="Y72" s="10">
+        <v>0.32550000000000001</v>
+      </c>
+      <c r="Z72" s="10">
+        <v>0.24490000000000001</v>
+      </c>
+      <c r="AA72" s="10">
+        <v>0.15679999999999999</v>
+      </c>
+      <c r="AB72" s="10">
+        <v>0.19769999999999999</v>
       </c>
       <c r="AC72">
         <v>73.760000000000005</v>
@@ -17280,14 +17819,17 @@
         <v>3</v>
       </c>
       <c r="C73" t="s">
-        <v>83</v>
+        <v>113</v>
       </c>
       <c r="D73" t="s">
-        <v>100</v>
+        <v>215</v>
       </c>
       <c r="E73">
         <v>1.17</v>
       </c>
+      <c r="F73">
+        <v>1.17</v>
+      </c>
       <c r="G73">
         <v>1.17</v>
       </c>
@@ -17312,11 +17854,11 @@
       <c r="N73">
         <v>6184510</v>
       </c>
-      <c r="O73">
-        <v>-34.448985999999998</v>
-      </c>
-      <c r="P73">
-        <v>-71.796924000000004</v>
+      <c r="O73" t="s">
+        <v>237</v>
+      </c>
+      <c r="P73" t="s">
+        <v>238</v>
       </c>
       <c r="Q73">
         <v>2.18E-2</v>
@@ -17342,17 +17884,17 @@
       <c r="X73">
         <v>5.8200000000000002E-2</v>
       </c>
-      <c r="Y73">
-        <v>-9.4399999999999998E-2</v>
-      </c>
-      <c r="Z73">
-        <v>-0.15290000000000001</v>
-      </c>
-      <c r="AA73">
-        <v>-7.6899999999999996E-2</v>
-      </c>
-      <c r="AB73">
-        <v>-6.88E-2</v>
+      <c r="Y73" s="10">
+        <v>9.4399999999999998E-2</v>
+      </c>
+      <c r="Z73" s="10">
+        <v>0.15290000000000001</v>
+      </c>
+      <c r="AA73" s="10">
+        <v>7.6899999999999996E-2</v>
+      </c>
+      <c r="AB73" s="10">
+        <v>6.88E-2</v>
       </c>
       <c r="AC73">
         <v>-157.64619999999999</v>
@@ -17507,10 +18049,10 @@
         <v>5</v>
       </c>
       <c r="C74" t="s">
-        <v>83</v>
+        <v>113</v>
       </c>
       <c r="D74" t="s">
-        <v>100</v>
+        <v>215</v>
       </c>
       <c r="E74">
         <v>1.58</v>
@@ -17542,11 +18084,11 @@
       <c r="N74">
         <v>6189570</v>
       </c>
-      <c r="O74">
-        <v>-34.403784999999999</v>
-      </c>
-      <c r="P74">
-        <v>-71.778886</v>
+      <c r="O74" t="s">
+        <v>239</v>
+      </c>
+      <c r="P74" t="s">
+        <v>240</v>
       </c>
       <c r="Q74">
         <v>0.1154</v>
@@ -17572,17 +18114,17 @@
       <c r="X74">
         <v>5.4000000000000003E-3</v>
       </c>
-      <c r="Y74">
-        <v>-0.16600000000000001</v>
-      </c>
-      <c r="Z74">
-        <v>-5.8099999999999999E-2</v>
-      </c>
-      <c r="AA74">
-        <v>-3.9199999999999999E-2</v>
-      </c>
-      <c r="AB74">
-        <v>-4.0800000000000003E-2</v>
+      <c r="Y74" s="10">
+        <v>0.16600000000000001</v>
+      </c>
+      <c r="Z74" s="10">
+        <v>5.8099999999999999E-2</v>
+      </c>
+      <c r="AA74" s="10">
+        <v>3.9199999999999999E-2</v>
+      </c>
+      <c r="AB74" s="10">
+        <v>4.0800000000000003E-2</v>
       </c>
       <c r="AC74">
         <v>83.151600000000002</v>
@@ -17737,10 +18279,10 @@
         <v>2</v>
       </c>
       <c r="C75" t="s">
-        <v>83</v>
+        <v>113</v>
       </c>
       <c r="D75" t="s">
-        <v>104</v>
+        <v>241</v>
       </c>
       <c r="E75">
         <v>0.5</v>
@@ -17772,11 +18314,11 @@
       <c r="N75">
         <v>6183870</v>
       </c>
-      <c r="O75">
-        <v>-34.454783999999997</v>
-      </c>
-      <c r="P75">
-        <v>-71.795702000000006</v>
+      <c r="O75" t="s">
+        <v>242</v>
+      </c>
+      <c r="P75" t="s">
+        <v>243</v>
       </c>
       <c r="Q75">
         <v>0.2215</v>
@@ -17802,17 +18344,17 @@
       <c r="X75">
         <v>7.2599999999999998E-2</v>
       </c>
-      <c r="Y75">
-        <v>-0.3039</v>
-      </c>
-      <c r="Z75">
-        <v>-0.18809999999999999</v>
-      </c>
-      <c r="AA75">
-        <v>-0.1069</v>
-      </c>
-      <c r="AB75">
-        <v>-0.12620000000000001</v>
+      <c r="Y75" s="10">
+        <v>0.3039</v>
+      </c>
+      <c r="Z75" s="10">
+        <v>0.18809999999999999</v>
+      </c>
+      <c r="AA75" s="10">
+        <v>0.1069</v>
+      </c>
+      <c r="AB75" s="10">
+        <v>0.12620000000000001</v>
       </c>
       <c r="AC75">
         <v>-137.90299999999999</v>
@@ -17967,10 +18509,10 @@
         <v>6</v>
       </c>
       <c r="C76" t="s">
-        <v>83</v>
+        <v>113</v>
       </c>
       <c r="D76" t="s">
-        <v>93</v>
+        <v>172</v>
       </c>
       <c r="E76">
         <v>0.24</v>
@@ -18002,11 +18544,11 @@
       <c r="N76">
         <v>6187810</v>
       </c>
-      <c r="O76">
-        <v>-34.419407999999997</v>
-      </c>
-      <c r="P76">
-        <v>-71.789519999999996</v>
+      <c r="O76" t="s">
+        <v>244</v>
+      </c>
+      <c r="P76" t="s">
+        <v>245</v>
       </c>
       <c r="Q76">
         <v>8.43E-2</v>
@@ -18032,17 +18574,17 @@
       <c r="X76">
         <v>7.7000000000000002E-3</v>
       </c>
-      <c r="Y76">
-        <v>-0.16769999999999999</v>
-      </c>
-      <c r="Z76">
-        <v>-1.52E-2</v>
-      </c>
-      <c r="AA76">
-        <v>-3.2199999999999999E-2</v>
-      </c>
-      <c r="AB76">
-        <v>-3.95E-2</v>
+      <c r="Y76" s="10">
+        <v>0.16769999999999999</v>
+      </c>
+      <c r="Z76" s="10">
+        <v>1.52E-2</v>
+      </c>
+      <c r="AA76" s="10">
+        <v>3.2199999999999999E-2</v>
+      </c>
+      <c r="AB76" s="10">
+        <v>3.95E-2</v>
       </c>
       <c r="AC76">
         <v>2.5442999999999998</v>
@@ -18197,10 +18739,10 @@
         <v>5</v>
       </c>
       <c r="C77" t="s">
-        <v>83</v>
+        <v>113</v>
       </c>
       <c r="D77" t="s">
-        <v>105</v>
+        <v>246</v>
       </c>
       <c r="E77">
         <v>0.68</v>
@@ -18232,11 +18774,11 @@
       <c r="N77">
         <v>6184640</v>
       </c>
-      <c r="O77">
-        <v>-34.447812999999996</v>
-      </c>
-      <c r="P77">
-        <v>-71.796993000000001</v>
+      <c r="O77" t="s">
+        <v>247</v>
+      </c>
+      <c r="P77" t="s">
+        <v>248</v>
       </c>
       <c r="Q77">
         <v>0.1794</v>
@@ -18262,17 +18804,17 @@
       <c r="X77">
         <v>3.5999999999999999E-3</v>
       </c>
-      <c r="Y77">
-        <v>-0.30459999999999998</v>
-      </c>
-      <c r="Z77">
-        <v>-9.0300000000000005E-2</v>
-      </c>
-      <c r="AA77">
-        <v>-1.7000000000000001E-2</v>
-      </c>
-      <c r="AB77">
-        <v>-4.0300000000000002E-2</v>
+      <c r="Y77" s="10">
+        <v>0.30459999999999998</v>
+      </c>
+      <c r="Z77" s="10">
+        <v>9.0300000000000005E-2</v>
+      </c>
+      <c r="AA77" s="10">
+        <v>1.7000000000000001E-2</v>
+      </c>
+      <c r="AB77" s="10">
+        <v>4.0300000000000002E-2</v>
       </c>
       <c r="AC77">
         <v>-140.03229999999999</v>
@@ -18424,10 +18966,13 @@
         <v>75</v>
       </c>
       <c r="B78" t="s">
-        <v>81</v>
+        <v>107</v>
       </c>
       <c r="C78" t="s">
-        <v>83</v>
+        <v>113</v>
+      </c>
+      <c r="D78" t="s">
+        <v>260</v>
       </c>
       <c r="E78">
         <v>0</v>
@@ -18459,11 +19004,11 @@
       <c r="N78">
         <v>6210810</v>
       </c>
-      <c r="O78">
-        <v>-34.210720000000002</v>
-      </c>
-      <c r="P78">
-        <v>-71.848375000000004</v>
+      <c r="O78" t="s">
+        <v>154</v>
+      </c>
+      <c r="P78" t="s">
+        <v>155</v>
       </c>
       <c r="Q78">
         <v>-1.6400000000000001E-2</v>
@@ -18489,17 +19034,17 @@
       <c r="X78">
         <v>-3.6900000000000002E-2</v>
       </c>
-      <c r="Y78">
-        <v>3.7999999999999999E-2</v>
-      </c>
-      <c r="Z78">
-        <v>5.4300000000000001E-2</v>
-      </c>
-      <c r="AA78">
-        <v>6.2700000000000006E-2</v>
-      </c>
-      <c r="AB78">
-        <v>5.8000000000000003E-2</v>
+      <c r="Y78" s="10">
+        <v>-3.7999999999999999E-2</v>
+      </c>
+      <c r="Z78" s="10">
+        <v>-5.4300000000000001E-2</v>
+      </c>
+      <c r="AA78" s="10">
+        <v>-6.2700000000000006E-2</v>
+      </c>
+      <c r="AB78" s="10">
+        <v>-5.8000000000000003E-2</v>
       </c>
       <c r="AC78">
         <v>151.76759999999999</v>
@@ -18651,10 +19196,13 @@
         <v>76</v>
       </c>
       <c r="B79" t="s">
-        <v>82</v>
+        <v>110</v>
       </c>
       <c r="C79" t="s">
-        <v>83</v>
+        <v>113</v>
+      </c>
+      <c r="D79" t="s">
+        <v>260</v>
       </c>
       <c r="E79">
         <v>0</v>
@@ -18686,11 +19234,11 @@
       <c r="N79">
         <v>6198390</v>
       </c>
-      <c r="O79">
-        <v>-34.323191000000001</v>
-      </c>
-      <c r="P79">
-        <v>-71.826312999999999</v>
+      <c r="O79" t="s">
+        <v>156</v>
+      </c>
+      <c r="P79" t="s">
+        <v>157</v>
       </c>
       <c r="Q79">
         <v>-3.61E-2</v>
@@ -18716,17 +19264,17 @@
       <c r="X79">
         <v>-5.8099999999999999E-2</v>
       </c>
-      <c r="Y79">
-        <v>4.7500000000000001E-2</v>
-      </c>
-      <c r="Z79">
-        <v>0.1164</v>
-      </c>
-      <c r="AA79">
-        <v>0.12520000000000001</v>
-      </c>
-      <c r="AB79">
-        <v>8.8300000000000003E-2</v>
+      <c r="Y79" s="10">
+        <v>-4.7500000000000001E-2</v>
+      </c>
+      <c r="Z79" s="10">
+        <v>-0.1164</v>
+      </c>
+      <c r="AA79" s="10">
+        <v>-0.12520000000000001</v>
+      </c>
+      <c r="AB79" s="10">
+        <v>-8.8300000000000003E-2</v>
       </c>
       <c r="AC79">
         <v>173.12129999999999</v>
